--- a/exe/TSV/Excel/W11_江ノ原検車区表示盤_UIList.xlsx
+++ b/exe/TSV/Excel/W11_江ノ原検車区表示盤_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46803D2-E9EB-483F-A551-F83B69F4E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761E2E3-EA4B-475A-941A-CDDE5E84890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5175" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="4020" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -811,7 +811,7 @@
     <col min="22" max="29" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -899,12 +899,8 @@
       <c r="F2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
-        <v>1920</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1000</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -929,7 +925,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -960,7 +956,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -991,7 +987,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1022,7 +1018,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1053,7 +1049,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1084,7 +1080,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1115,7 +1111,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1146,7 +1142,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1177,7 +1173,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1208,7 +1204,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1239,7 +1235,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1270,7 +1266,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1301,7 +1297,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1332,7 +1328,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1363,7 +1359,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1394,7 +1390,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1425,7 +1421,7 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1456,7 +1452,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1487,7 +1483,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1518,7 +1514,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1549,7 +1545,7 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1580,7 +1576,7 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1611,7 +1607,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1642,7 +1638,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1673,7 +1669,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1704,7 +1700,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1735,7 +1731,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1766,7 +1762,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1797,7 +1793,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1828,7 +1824,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1859,7 +1855,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1890,7 +1886,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1921,7 +1917,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1952,7 +1948,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1983,7 +1979,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2014,7 +2010,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2045,7 +2041,7 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2076,7 +2072,7 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2107,7 +2103,7 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2138,7 +2134,7 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2169,7 +2165,7 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2200,7 +2196,7 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2231,7 +2227,7 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2262,7 +2258,7 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
@@ -2293,7 +2289,7 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2324,7 +2320,7 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2355,7 +2351,7 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2386,7 +2382,7 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2417,7 +2413,7 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2448,7 +2444,7 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2479,7 +2475,7 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2510,7 +2506,7 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2541,7 +2537,7 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2572,7 +2568,7 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2603,7 +2599,7 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2634,7 +2630,7 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2665,7 +2661,7 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2696,7 +2692,7 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
@@ -2727,7 +2723,7 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
@@ -2758,7 +2754,7 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
@@ -2789,7 +2785,7 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
@@ -2820,7 +2816,7 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2851,7 +2847,7 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2882,7 +2878,7 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -2913,7 +2909,7 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="4"/>
@@ -2944,7 +2940,7 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
@@ -2975,7 +2971,7 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -3006,7 +3002,7 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3037,7 +3033,7 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="4"/>
@@ -3068,7 +3064,7 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -3099,7 +3095,7 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3130,7 +3126,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="4"/>
@@ -3161,7 +3157,7 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3192,7 +3188,7 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3223,7 +3219,7 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3254,7 +3250,7 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3285,7 +3281,7 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3316,7 +3312,7 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3347,7 +3343,7 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3378,7 +3374,7 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3409,7 +3405,7 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3440,7 +3436,7 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3471,7 +3467,7 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3502,7 +3498,7 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3533,7 +3529,7 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3564,7 +3560,7 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3595,7 +3591,7 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3626,7 +3622,7 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3657,7 +3653,7 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3688,7 +3684,7 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="4"/>
@@ -3719,7 +3715,7 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="4"/>
@@ -3750,7 +3746,7 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="4"/>
@@ -3781,7 +3777,7 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="4"/>
@@ -3812,7 +3808,7 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="4"/>
@@ -3843,7 +3839,7 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -3874,7 +3870,7 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3905,7 +3901,7 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3936,7 +3932,7 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="4"/>
@@ -3967,7 +3963,7 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
@@ -3998,7 +3994,7 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
@@ -4029,7 +4025,7 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
@@ -4060,7 +4056,7 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -4091,7 +4087,7 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
@@ -4122,7 +4118,7 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4153,7 +4149,7 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
@@ -4184,7 +4180,7 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
@@ -4215,7 +4211,7 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
@@ -4246,7 +4242,7 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
@@ -4277,7 +4273,7 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -4308,7 +4304,7 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
@@ -4339,7 +4335,7 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4370,7 +4366,7 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4401,7 +4397,7 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
@@ -4432,7 +4428,7 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4463,7 +4459,7 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -4494,7 +4490,7 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
@@ -4525,7 +4521,7 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
@@ -4556,7 +4552,7 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4587,7 +4583,7 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -4618,7 +4614,7 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
@@ -4649,7 +4645,7 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
@@ -4680,7 +4676,7 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
@@ -4711,7 +4707,7 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
@@ -4742,7 +4738,7 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -4773,7 +4769,7 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4804,7 +4800,7 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4835,7 +4831,7 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4866,7 +4862,7 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4897,7 +4893,7 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4928,7 +4924,7 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4959,7 +4955,7 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4990,7 +4986,7 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5021,7 +5017,7 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5052,7 +5048,7 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5083,7 +5079,7 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5114,7 +5110,7 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5145,7 +5141,7 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5176,7 +5172,7 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5207,7 +5203,7 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5238,7 +5234,7 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5269,7 +5265,7 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5300,7 +5296,7 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5331,7 +5327,7 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5362,7 +5358,7 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5393,7 +5389,7 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5424,7 +5420,7 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5455,7 +5451,7 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5486,7 +5482,7 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5517,7 +5513,7 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5548,7 +5544,7 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5579,7 +5575,7 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5610,7 +5606,7 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5641,7 +5637,7 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5672,7 +5668,7 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5703,7 +5699,7 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5734,7 +5730,7 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5765,7 +5761,7 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5796,7 +5792,7 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5827,7 +5823,7 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5858,7 +5854,7 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5889,7 +5885,7 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5920,7 +5916,7 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5951,7 +5947,7 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5982,7 +5978,7 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -6013,7 +6009,7 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -6044,7 +6040,7 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -6075,7 +6071,7 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -6106,7 +6102,7 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -6137,7 +6133,7 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -6168,7 +6164,7 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -6199,7 +6195,7 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -6230,7 +6226,7 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -6261,7 +6257,7 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -6292,7 +6288,7 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -6323,7 +6319,7 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6354,7 +6350,7 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6385,7 +6381,7 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6416,7 +6412,7 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6447,7 +6443,7 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6478,7 +6474,7 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6509,7 +6505,7 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6540,7 +6536,7 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6571,7 +6567,7 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6602,7 +6598,7 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6633,7 +6629,7 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6664,7 +6660,7 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6695,7 +6691,7 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6726,7 +6722,7 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6757,7 +6753,7 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6788,7 +6784,7 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6819,7 +6815,7 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6850,7 +6846,7 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6881,7 +6877,7 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6912,7 +6908,7 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6943,7 +6939,7 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6974,7 +6970,7 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -7005,7 +7001,7 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -7036,7 +7032,7 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -7067,7 +7063,7 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -7098,7 +7094,7 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -7129,7 +7125,7 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -7160,7 +7156,7 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -7191,7 +7187,7 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -7222,7 +7218,7 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -7253,7 +7249,7 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -7284,7 +7280,7 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -7315,7 +7311,7 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -7346,7 +7342,7 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -7377,7 +7373,7 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -7408,7 +7404,7 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -7439,7 +7435,7 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -7470,7 +7466,7 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -7501,7 +7497,7 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -7532,7 +7528,7 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -7563,7 +7559,7 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -7594,7 +7590,7 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -7625,7 +7621,7 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -7656,7 +7652,7 @@
       <c r="AB219" s="3"/>
       <c r="AC219" s="3"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -7687,7 +7683,7 @@
       <c r="AB220" s="3"/>
       <c r="AC220" s="3"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -7718,7 +7714,7 @@
       <c r="AB221" s="3"/>
       <c r="AC221" s="3"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -7749,7 +7745,7 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -7780,7 +7776,7 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -7811,7 +7807,7 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -7842,7 +7838,7 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -7873,7 +7869,7 @@
       <c r="AB226" s="3"/>
       <c r="AC226" s="3"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -7904,7 +7900,7 @@
       <c r="AB227" s="3"/>
       <c r="AC227" s="3"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -7935,7 +7931,7 @@
       <c r="AB228" s="3"/>
       <c r="AC228" s="3"/>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -7966,7 +7962,7 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -7997,7 +7993,7 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -8028,7 +8024,7 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -8059,7 +8055,7 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -8090,7 +8086,7 @@
       <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -8121,7 +8117,7 @@
       <c r="AB234" s="3"/>
       <c r="AC234" s="3"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -8152,7 +8148,7 @@
       <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -8183,7 +8179,7 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -8214,7 +8210,7 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -8245,7 +8241,7 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -8276,7 +8272,7 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -8307,7 +8303,7 @@
       <c r="AB240" s="3"/>
       <c r="AC240" s="3"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -8338,7 +8334,7 @@
       <c r="AB241" s="3"/>
       <c r="AC241" s="3"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -8369,7 +8365,7 @@
       <c r="AB242" s="3"/>
       <c r="AC242" s="3"/>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -8400,7 +8396,7 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -8431,7 +8427,7 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -8462,7 +8458,7 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -8493,7 +8489,7 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -8524,7 +8520,7 @@
       <c r="AB247" s="3"/>
       <c r="AC247" s="3"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -8555,7 +8551,7 @@
       <c r="AB248" s="3"/>
       <c r="AC248" s="3"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -8586,7 +8582,7 @@
       <c r="AB249" s="3"/>
       <c r="AC249" s="3"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -8617,7 +8613,7 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -8648,7 +8644,7 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -8679,7 +8675,7 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -8710,7 +8706,7 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -8741,7 +8737,7 @@
       <c r="AB254" s="3"/>
       <c r="AC254" s="3"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -8772,7 +8768,7 @@
       <c r="AB255" s="3"/>
       <c r="AC255" s="3"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -8803,7 +8799,7 @@
       <c r="AB256" s="3"/>
       <c r="AC256" s="3"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -8834,7 +8830,7 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -8865,7 +8861,7 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -8896,7 +8892,7 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -8927,7 +8923,7 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -8958,7 +8954,7 @@
       <c r="AB261" s="3"/>
       <c r="AC261" s="3"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -8989,7 +8985,7 @@
       <c r="AB262" s="3"/>
       <c r="AC262" s="3"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -9020,7 +9016,7 @@
       <c r="AB263" s="3"/>
       <c r="AC263" s="3"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -9051,7 +9047,7 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -9082,7 +9078,7 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -9113,7 +9109,7 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -9144,7 +9140,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -9175,7 +9171,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -9206,7 +9202,7 @@
       <c r="AB269" s="3"/>
       <c r="AC269" s="3"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -9237,7 +9233,7 @@
       <c r="AB270" s="3"/>
       <c r="AC270" s="3"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -9268,7 +9264,7 @@
       <c r="AB271" s="3"/>
       <c r="AC271" s="3"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -9299,7 +9295,7 @@
       <c r="AB272" s="3"/>
       <c r="AC272" s="3"/>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -9330,7 +9326,7 @@
       <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -9361,7 +9357,7 @@
       <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -9392,7 +9388,7 @@
       <c r="AB275" s="3"/>
       <c r="AC275" s="3"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -9423,7 +9419,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -9454,7 +9450,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -9485,7 +9481,7 @@
       <c r="AB278" s="3"/>
       <c r="AC278" s="3"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -9516,7 +9512,7 @@
       <c r="AB279" s="3"/>
       <c r="AC279" s="3"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -9547,7 +9543,7 @@
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -9578,7 +9574,7 @@
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -9609,7 +9605,7 @@
       <c r="AB282" s="3"/>
       <c r="AC282" s="3"/>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -9640,7 +9636,7 @@
       <c r="AB283" s="3"/>
       <c r="AC283" s="3"/>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -9671,7 +9667,7 @@
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -9702,7 +9698,7 @@
       <c r="AB285" s="3"/>
       <c r="AC285" s="3"/>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -9733,7 +9729,7 @@
       <c r="AB286" s="3"/>
       <c r="AC286" s="3"/>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -9764,7 +9760,7 @@
       <c r="AB287" s="3"/>
       <c r="AC287" s="3"/>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -9795,7 +9791,7 @@
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -9826,7 +9822,7 @@
       <c r="AB289" s="3"/>
       <c r="AC289" s="3"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -9857,7 +9853,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -9888,7 +9884,7 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -9919,7 +9915,7 @@
       <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -9950,7 +9946,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -9981,7 +9977,7 @@
       <c r="AB294" s="3"/>
       <c r="AC294" s="3"/>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -10012,7 +10008,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -10043,7 +10039,7 @@
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -10074,7 +10070,7 @@
       <c r="AB297" s="3"/>
       <c r="AC297" s="3"/>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -10105,7 +10101,7 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -10136,7 +10132,7 @@
       <c r="AB299" s="3"/>
       <c r="AC299" s="3"/>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10167,7 +10163,7 @@
       <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -10198,7 +10194,7 @@
       <c r="AB301" s="3"/>
       <c r="AC301" s="3"/>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -10229,7 +10225,7 @@
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -10260,7 +10256,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -10291,7 +10287,7 @@
       <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -10322,7 +10318,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -10353,7 +10349,7 @@
       <c r="AB306" s="3"/>
       <c r="AC306" s="3"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -10384,7 +10380,7 @@
       <c r="AB307" s="3"/>
       <c r="AC307" s="3"/>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -10415,7 +10411,7 @@
       <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -10446,7 +10442,7 @@
       <c r="AB309" s="3"/>
       <c r="AC309" s="3"/>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -10477,7 +10473,7 @@
       <c r="AB310" s="3"/>
       <c r="AC310" s="3"/>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -10508,7 +10504,7 @@
       <c r="AB311" s="3"/>
       <c r="AC311" s="3"/>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -10539,7 +10535,7 @@
       <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -10570,7 +10566,7 @@
       <c r="AB313" s="3"/>
       <c r="AC313" s="3"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -10601,7 +10597,7 @@
       <c r="AB314" s="3"/>
       <c r="AC314" s="3"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -10632,7 +10628,7 @@
       <c r="AB315" s="3"/>
       <c r="AC315" s="3"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -10663,7 +10659,7 @@
       <c r="AB316" s="3"/>
       <c r="AC316" s="3"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -10694,7 +10690,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -10725,7 +10721,7 @@
       <c r="AB318" s="3"/>
       <c r="AC318" s="3"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -10756,7 +10752,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -10787,7 +10783,7 @@
       <c r="AB320" s="3"/>
       <c r="AC320" s="3"/>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -10818,7 +10814,7 @@
       <c r="AB321" s="3"/>
       <c r="AC321" s="3"/>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -10849,7 +10845,7 @@
       <c r="AB322" s="3"/>
       <c r="AC322" s="3"/>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -10880,7 +10876,7 @@
       <c r="AB323" s="3"/>
       <c r="AC323" s="3"/>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -10911,7 +10907,7 @@
       <c r="AB324" s="3"/>
       <c r="AC324" s="3"/>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -10942,7 +10938,7 @@
       <c r="AB325" s="3"/>
       <c r="AC325" s="3"/>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -10973,7 +10969,7 @@
       <c r="AB326" s="3"/>
       <c r="AC326" s="3"/>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11004,7 +11000,7 @@
       <c r="AB327" s="3"/>
       <c r="AC327" s="3"/>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -11035,7 +11031,7 @@
       <c r="AB328" s="3"/>
       <c r="AC328" s="3"/>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -11066,7 +11062,7 @@
       <c r="AB329" s="3"/>
       <c r="AC329" s="3"/>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -11097,7 +11093,7 @@
       <c r="AB330" s="3"/>
       <c r="AC330" s="3"/>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -11128,7 +11124,7 @@
       <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -11159,7 +11155,7 @@
       <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -11190,7 +11186,7 @@
       <c r="AB333" s="3"/>
       <c r="AC333" s="3"/>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -11221,7 +11217,7 @@
       <c r="AB334" s="3"/>
       <c r="AC334" s="3"/>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -11252,7 +11248,7 @@
       <c r="AB335" s="3"/>
       <c r="AC335" s="3"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -11283,7 +11279,7 @@
       <c r="AB336" s="3"/>
       <c r="AC336" s="3"/>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -11314,7 +11310,7 @@
       <c r="AB337" s="3"/>
       <c r="AC337" s="3"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -11345,7 +11341,7 @@
       <c r="AB338" s="3"/>
       <c r="AC338" s="3"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -11376,7 +11372,7 @@
       <c r="AB339" s="3"/>
       <c r="AC339" s="3"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -11407,7 +11403,7 @@
       <c r="AB340" s="3"/>
       <c r="AC340" s="3"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -11438,7 +11434,7 @@
       <c r="AB341" s="3"/>
       <c r="AC341" s="3"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -11469,7 +11465,7 @@
       <c r="AB342" s="3"/>
       <c r="AC342" s="3"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -11500,7 +11496,7 @@
       <c r="AB343" s="3"/>
       <c r="AC343" s="3"/>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -11531,7 +11527,7 @@
       <c r="AB344" s="3"/>
       <c r="AC344" s="3"/>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -11562,7 +11558,7 @@
       <c r="AB345" s="3"/>
       <c r="AC345" s="3"/>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -11593,7 +11589,7 @@
       <c r="AB346" s="3"/>
       <c r="AC346" s="3"/>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -11624,7 +11620,7 @@
       <c r="AB347" s="3"/>
       <c r="AC347" s="3"/>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -11655,7 +11651,7 @@
       <c r="AB348" s="3"/>
       <c r="AC348" s="3"/>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -11686,7 +11682,7 @@
       <c r="AB349" s="3"/>
       <c r="AC349" s="3"/>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -11717,7 +11713,7 @@
       <c r="AB350" s="3"/>
       <c r="AC350" s="3"/>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -11748,7 +11744,7 @@
       <c r="AB351" s="3"/>
       <c r="AC351" s="3"/>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -11779,7 +11775,7 @@
       <c r="AB352" s="3"/>
       <c r="AC352" s="3"/>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -11810,7 +11806,7 @@
       <c r="AB353" s="3"/>
       <c r="AC353" s="3"/>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -11841,7 +11837,7 @@
       <c r="AB354" s="3"/>
       <c r="AC354" s="3"/>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -11872,7 +11868,7 @@
       <c r="AB355" s="3"/>
       <c r="AC355" s="3"/>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -11903,7 +11899,7 @@
       <c r="AB356" s="3"/>
       <c r="AC356" s="3"/>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -11934,7 +11930,7 @@
       <c r="AB357" s="3"/>
       <c r="AC357" s="3"/>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -11965,7 +11961,7 @@
       <c r="AB358" s="3"/>
       <c r="AC358" s="3"/>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -11996,7 +11992,7 @@
       <c r="AB359" s="3"/>
       <c r="AC359" s="3"/>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -12027,7 +12023,7 @@
       <c r="AB360" s="3"/>
       <c r="AC360" s="3"/>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -12058,7 +12054,7 @@
       <c r="AB361" s="3"/>
       <c r="AC361" s="3"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -12089,7 +12085,7 @@
       <c r="AB362" s="3"/>
       <c r="AC362" s="3"/>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -12120,7 +12116,7 @@
       <c r="AB363" s="3"/>
       <c r="AC363" s="3"/>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -12151,7 +12147,7 @@
       <c r="AB364" s="3"/>
       <c r="AC364" s="3"/>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -12182,7 +12178,7 @@
       <c r="AB365" s="3"/>
       <c r="AC365" s="3"/>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -12213,7 +12209,7 @@
       <c r="AB366" s="3"/>
       <c r="AC366" s="3"/>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -12244,7 +12240,7 @@
       <c r="AB367" s="3"/>
       <c r="AC367" s="3"/>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -12275,7 +12271,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -12306,7 +12302,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -12337,7 +12333,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -12368,7 +12364,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -12399,7 +12395,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -12430,7 +12426,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -12461,7 +12457,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -12492,7 +12488,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -12523,7 +12519,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -12554,7 +12550,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -12585,7 +12581,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -12616,7 +12612,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -12647,7 +12643,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -12678,7 +12674,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -12709,7 +12705,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -12740,7 +12736,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -12771,7 +12767,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -12802,7 +12798,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -12833,7 +12829,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -12864,7 +12860,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -12895,7 +12891,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -12926,7 +12922,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -12957,7 +12953,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -12988,7 +12984,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -13019,7 +13015,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -13050,7 +13046,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -13081,7 +13077,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -13112,7 +13108,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -13143,7 +13139,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -13174,7 +13170,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -13205,7 +13201,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -13236,7 +13232,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -13267,7 +13263,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -13298,7 +13294,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -13329,7 +13325,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -13360,7 +13356,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -13391,7 +13387,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -13422,7 +13418,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -13453,7 +13449,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -13484,7 +13480,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -13515,7 +13511,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -13546,7 +13542,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -13577,7 +13573,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -13608,7 +13604,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -13639,7 +13635,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -13670,7 +13666,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -13701,7 +13697,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -13732,7 +13728,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -13763,7 +13759,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -13794,7 +13790,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -13825,7 +13821,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -13856,7 +13852,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -13887,7 +13883,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -13918,7 +13914,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -13949,7 +13945,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -13980,7 +13976,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -14011,7 +14007,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -14042,7 +14038,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -14073,7 +14069,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -14104,7 +14100,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -14135,7 +14131,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -14166,7 +14162,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -14197,7 +14193,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -14228,7 +14224,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -14259,7 +14255,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -14290,7 +14286,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -14321,7 +14317,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -14352,7 +14348,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -14383,7 +14379,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -14414,7 +14410,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -14445,7 +14441,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -14476,7 +14472,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -14507,7 +14503,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -14538,7 +14534,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -14569,7 +14565,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -14600,7 +14596,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -14631,7 +14627,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -14662,7 +14658,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -14693,7 +14689,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -14724,7 +14720,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -14755,7 +14751,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -14786,7 +14782,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -14817,7 +14813,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -14848,7 +14844,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -14879,7 +14875,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -14910,7 +14906,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -14941,7 +14937,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -14972,7 +14968,7 @@
       <c r="AB455" s="3"/>
       <c r="AC455" s="3"/>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -15003,7 +14999,7 @@
       <c r="AB456" s="3"/>
       <c r="AC456" s="3"/>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -15034,7 +15030,7 @@
       <c r="AB457" s="3"/>
       <c r="AC457" s="3"/>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -15065,7 +15061,7 @@
       <c r="AB458" s="3"/>
       <c r="AC458" s="3"/>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -15096,7 +15092,7 @@
       <c r="AB459" s="3"/>
       <c r="AC459" s="3"/>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -15127,7 +15123,7 @@
       <c r="AB460" s="3"/>
       <c r="AC460" s="3"/>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -15158,7 +15154,7 @@
       <c r="AB461" s="3"/>
       <c r="AC461" s="3"/>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -15189,7 +15185,7 @@
       <c r="AB462" s="3"/>
       <c r="AC462" s="3"/>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -15220,7 +15216,7 @@
       <c r="AB463" s="3"/>
       <c r="AC463" s="3"/>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -15251,7 +15247,7 @@
       <c r="AB464" s="3"/>
       <c r="AC464" s="3"/>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -15282,7 +15278,7 @@
       <c r="AB465" s="3"/>
       <c r="AC465" s="3"/>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -15313,7 +15309,7 @@
       <c r="AB466" s="3"/>
       <c r="AC466" s="3"/>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -15344,7 +15340,7 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -15375,7 +15371,7 @@
       <c r="AB468" s="3"/>
       <c r="AC468" s="3"/>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -15406,7 +15402,7 @@
       <c r="AB469" s="3"/>
       <c r="AC469" s="3"/>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -15437,7 +15433,7 @@
       <c r="AB470" s="3"/>
       <c r="AC470" s="3"/>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -15468,7 +15464,7 @@
       <c r="AB471" s="3"/>
       <c r="AC471" s="3"/>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -15499,7 +15495,7 @@
       <c r="AB472" s="3"/>
       <c r="AC472" s="3"/>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -15530,7 +15526,7 @@
       <c r="AB473" s="3"/>
       <c r="AC473" s="3"/>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -15561,7 +15557,7 @@
       <c r="AB474" s="3"/>
       <c r="AC474" s="3"/>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -15592,7 +15588,7 @@
       <c r="AB475" s="3"/>
       <c r="AC475" s="3"/>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -15623,7 +15619,7 @@
       <c r="AB476" s="3"/>
       <c r="AC476" s="3"/>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -15654,7 +15650,7 @@
       <c r="AB477" s="3"/>
       <c r="AC477" s="3"/>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -15685,7 +15681,7 @@
       <c r="AB478" s="3"/>
       <c r="AC478" s="3"/>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -15716,7 +15712,7 @@
       <c r="AB479" s="3"/>
       <c r="AC479" s="3"/>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -15747,7 +15743,7 @@
       <c r="AB480" s="3"/>
       <c r="AC480" s="3"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -15778,7 +15774,7 @@
       <c r="AB481" s="3"/>
       <c r="AC481" s="3"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -15809,7 +15805,7 @@
       <c r="AB482" s="3"/>
       <c r="AC482" s="3"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -15840,7 +15836,7 @@
       <c r="AB483" s="3"/>
       <c r="AC483" s="3"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -15871,7 +15867,7 @@
       <c r="AB484" s="3"/>
       <c r="AC484" s="3"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -15902,7 +15898,7 @@
       <c r="AB485" s="3"/>
       <c r="AC485" s="3"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -15933,7 +15929,7 @@
       <c r="AB486" s="3"/>
       <c r="AC486" s="3"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -15964,7 +15960,7 @@
       <c r="AB487" s="3"/>
       <c r="AC487" s="3"/>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -15995,7 +15991,7 @@
       <c r="AB488" s="3"/>
       <c r="AC488" s="3"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -16026,7 +16022,7 @@
       <c r="AB489" s="3"/>
       <c r="AC489" s="3"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -16057,7 +16053,7 @@
       <c r="AB490" s="3"/>
       <c r="AC490" s="3"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -16088,7 +16084,7 @@
       <c r="AB491" s="3"/>
       <c r="AC491" s="3"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -16119,7 +16115,7 @@
       <c r="AB492" s="3"/>
       <c r="AC492" s="3"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -16150,7 +16146,7 @@
       <c r="AB493" s="3"/>
       <c r="AC493" s="3"/>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -16181,7 +16177,7 @@
       <c r="AB494" s="3"/>
       <c r="AC494" s="3"/>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -16212,7 +16208,7 @@
       <c r="AB495" s="3"/>
       <c r="AC495" s="3"/>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -16243,7 +16239,7 @@
       <c r="AB496" s="3"/>
       <c r="AC496" s="3"/>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -16274,7 +16270,7 @@
       <c r="AB497" s="3"/>
       <c r="AC497" s="3"/>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -16305,7 +16301,7 @@
       <c r="AB498" s="3"/>
       <c r="AC498" s="3"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -16336,7 +16332,7 @@
       <c r="AB499" s="3"/>
       <c r="AC499" s="3"/>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -16367,7 +16363,7 @@
       <c r="AB500" s="3"/>
       <c r="AC500" s="3"/>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -16398,7 +16394,7 @@
       <c r="AB501" s="3"/>
       <c r="AC501" s="3"/>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -16429,7 +16425,7 @@
       <c r="AB502" s="3"/>
       <c r="AC502" s="3"/>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -16460,7 +16456,7 @@
       <c r="AB503" s="3"/>
       <c r="AC503" s="3"/>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -16491,7 +16487,7 @@
       <c r="AB504" s="3"/>
       <c r="AC504" s="3"/>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -16522,7 +16518,7 @@
       <c r="AB505" s="3"/>
       <c r="AC505" s="3"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -16553,7 +16549,7 @@
       <c r="AB506" s="3"/>
       <c r="AC506" s="3"/>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -16584,7 +16580,7 @@
       <c r="AB507" s="3"/>
       <c r="AC507" s="3"/>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -16615,7 +16611,7 @@
       <c r="AB508" s="3"/>
       <c r="AC508" s="3"/>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -16646,7 +16642,7 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -16677,7 +16673,7 @@
       <c r="AB510" s="3"/>
       <c r="AC510" s="3"/>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -16708,7 +16704,7 @@
       <c r="AB511" s="3"/>
       <c r="AC511" s="3"/>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -16739,7 +16735,7 @@
       <c r="AB512" s="3"/>
       <c r="AC512" s="3"/>
     </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -16770,7 +16766,7 @@
       <c r="AB513" s="3"/>
       <c r="AC513" s="3"/>
     </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -16801,7 +16797,7 @@
       <c r="AB514" s="3"/>
       <c r="AC514" s="3"/>
     </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -16832,7 +16828,7 @@
       <c r="AB515" s="3"/>
       <c r="AC515" s="3"/>
     </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -16863,7 +16859,7 @@
       <c r="AB516" s="3"/>
       <c r="AC516" s="3"/>
     </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -16894,7 +16890,7 @@
       <c r="AB517" s="3"/>
       <c r="AC517" s="3"/>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -16925,7 +16921,7 @@
       <c r="AB518" s="3"/>
       <c r="AC518" s="3"/>
     </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -16956,7 +16952,7 @@
       <c r="AB519" s="3"/>
       <c r="AC519" s="3"/>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -16987,7 +16983,7 @@
       <c r="AB520" s="3"/>
       <c r="AC520" s="3"/>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -17018,7 +17014,7 @@
       <c r="AB521" s="3"/>
       <c r="AC521" s="3"/>
     </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -17049,7 +17045,7 @@
       <c r="AB522" s="3"/>
       <c r="AC522" s="3"/>
     </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -17080,7 +17076,7 @@
       <c r="AB523" s="3"/>
       <c r="AC523" s="3"/>
     </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -17111,7 +17107,7 @@
       <c r="AB524" s="3"/>
       <c r="AC524" s="3"/>
     </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -17142,7 +17138,7 @@
       <c r="AB525" s="3"/>
       <c r="AC525" s="3"/>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -17173,7 +17169,7 @@
       <c r="AB526" s="3"/>
       <c r="AC526" s="3"/>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -17204,7 +17200,7 @@
       <c r="AB527" s="3"/>
       <c r="AC527" s="3"/>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -17235,7 +17231,7 @@
       <c r="AB528" s="3"/>
       <c r="AC528" s="3"/>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -17266,7 +17262,7 @@
       <c r="AB529" s="3"/>
       <c r="AC529" s="3"/>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -17297,7 +17293,7 @@
       <c r="AB530" s="3"/>
       <c r="AC530" s="3"/>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -17328,7 +17324,7 @@
       <c r="AB531" s="3"/>
       <c r="AC531" s="3"/>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -17359,7 +17355,7 @@
       <c r="AB532" s="3"/>
       <c r="AC532" s="3"/>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -17390,7 +17386,7 @@
       <c r="AB533" s="3"/>
       <c r="AC533" s="3"/>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -17421,7 +17417,7 @@
       <c r="AB534" s="3"/>
       <c r="AC534" s="3"/>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -17452,7 +17448,7 @@
       <c r="AB535" s="3"/>
       <c r="AC535" s="3"/>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -17483,7 +17479,7 @@
       <c r="AB536" s="3"/>
       <c r="AC536" s="3"/>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -17514,7 +17510,7 @@
       <c r="AB537" s="3"/>
       <c r="AC537" s="3"/>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -17545,7 +17541,7 @@
       <c r="AB538" s="3"/>
       <c r="AC538" s="3"/>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -17576,7 +17572,7 @@
       <c r="AB539" s="3"/>
       <c r="AC539" s="3"/>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -17607,7 +17603,7 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -17638,7 +17634,7 @@
       <c r="AB541" s="3"/>
       <c r="AC541" s="3"/>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -17669,7 +17665,7 @@
       <c r="AB542" s="3"/>
       <c r="AC542" s="3"/>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -17700,7 +17696,7 @@
       <c r="AB543" s="3"/>
       <c r="AC543" s="3"/>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -17731,7 +17727,7 @@
       <c r="AB544" s="3"/>
       <c r="AC544" s="3"/>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -17762,7 +17758,7 @@
       <c r="AB545" s="3"/>
       <c r="AC545" s="3"/>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -17793,7 +17789,7 @@
       <c r="AB546" s="3"/>
       <c r="AC546" s="3"/>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -17824,7 +17820,7 @@
       <c r="AB547" s="3"/>
       <c r="AC547" s="3"/>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -17855,7 +17851,7 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -17886,7 +17882,7 @@
       <c r="AB549" s="3"/>
       <c r="AC549" s="3"/>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -17917,7 +17913,7 @@
       <c r="AB550" s="3"/>
       <c r="AC550" s="3"/>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -17948,7 +17944,7 @@
       <c r="AB551" s="3"/>
       <c r="AC551" s="3"/>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -17979,7 +17975,7 @@
       <c r="AB552" s="3"/>
       <c r="AC552" s="3"/>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -18010,7 +18006,7 @@
       <c r="AB553" s="3"/>
       <c r="AC553" s="3"/>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -18041,7 +18037,7 @@
       <c r="AB554" s="3"/>
       <c r="AC554" s="3"/>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -18072,7 +18068,7 @@
       <c r="AB555" s="3"/>
       <c r="AC555" s="3"/>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -18103,7 +18099,7 @@
       <c r="AB556" s="3"/>
       <c r="AC556" s="3"/>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -18134,7 +18130,7 @@
       <c r="AB557" s="3"/>
       <c r="AC557" s="3"/>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -18165,7 +18161,7 @@
       <c r="AB558" s="3"/>
       <c r="AC558" s="3"/>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -18196,7 +18192,7 @@
       <c r="AB559" s="3"/>
       <c r="AC559" s="3"/>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -18227,7 +18223,7 @@
       <c r="AB560" s="3"/>
       <c r="AC560" s="3"/>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -18258,7 +18254,7 @@
       <c r="AB561" s="3"/>
       <c r="AC561" s="3"/>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -18289,7 +18285,7 @@
       <c r="AB562" s="3"/>
       <c r="AC562" s="3"/>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -18320,7 +18316,7 @@
       <c r="AB563" s="3"/>
       <c r="AC563" s="3"/>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -18351,7 +18347,7 @@
       <c r="AB564" s="3"/>
       <c r="AC564" s="3"/>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -18382,7 +18378,7 @@
       <c r="AB565" s="3"/>
       <c r="AC565" s="3"/>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -18413,7 +18409,7 @@
       <c r="AB566" s="3"/>
       <c r="AC566" s="3"/>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -18444,7 +18440,7 @@
       <c r="AB567" s="3"/>
       <c r="AC567" s="3"/>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -18475,7 +18471,7 @@
       <c r="AB568" s="3"/>
       <c r="AC568" s="3"/>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -18506,7 +18502,7 @@
       <c r="AB569" s="3"/>
       <c r="AC569" s="3"/>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -18537,7 +18533,7 @@
       <c r="AB570" s="3"/>
       <c r="AC570" s="3"/>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -18568,7 +18564,7 @@
       <c r="AB571" s="3"/>
       <c r="AC571" s="3"/>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -18599,7 +18595,7 @@
       <c r="AB572" s="3"/>
       <c r="AC572" s="3"/>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -18630,7 +18626,7 @@
       <c r="AB573" s="3"/>
       <c r="AC573" s="3"/>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -18661,7 +18657,7 @@
       <c r="AB574" s="3"/>
       <c r="AC574" s="3"/>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -18692,7 +18688,7 @@
       <c r="AB575" s="3"/>
       <c r="AC575" s="3"/>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -18723,7 +18719,7 @@
       <c r="AB576" s="3"/>
       <c r="AC576" s="3"/>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -18754,7 +18750,7 @@
       <c r="AB577" s="3"/>
       <c r="AC577" s="3"/>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -18785,7 +18781,7 @@
       <c r="AB578" s="3"/>
       <c r="AC578" s="3"/>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -18816,7 +18812,7 @@
       <c r="AB579" s="3"/>
       <c r="AC579" s="3"/>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -18847,7 +18843,7 @@
       <c r="AB580" s="3"/>
       <c r="AC580" s="3"/>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -18878,7 +18874,7 @@
       <c r="AB581" s="3"/>
       <c r="AC581" s="3"/>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -18909,7 +18905,7 @@
       <c r="AB582" s="3"/>
       <c r="AC582" s="3"/>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -18940,7 +18936,7 @@
       <c r="AB583" s="3"/>
       <c r="AC583" s="3"/>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -18971,7 +18967,7 @@
       <c r="AB584" s="3"/>
       <c r="AC584" s="3"/>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -19002,7 +18998,7 @@
       <c r="AB585" s="3"/>
       <c r="AC585" s="3"/>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -19033,7 +19029,7 @@
       <c r="AB586" s="3"/>
       <c r="AC586" s="3"/>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -19064,7 +19060,7 @@
       <c r="AB587" s="3"/>
       <c r="AC587" s="3"/>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -19095,7 +19091,7 @@
       <c r="AB588" s="3"/>
       <c r="AC588" s="3"/>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -19126,7 +19122,7 @@
       <c r="AB589" s="3"/>
       <c r="AC589" s="3"/>
     </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -19157,7 +19153,7 @@
       <c r="AB590" s="3"/>
       <c r="AC590" s="3"/>
     </row>
-    <row r="591" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -19188,7 +19184,7 @@
       <c r="AB591" s="3"/>
       <c r="AC591" s="3"/>
     </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -19219,7 +19215,7 @@
       <c r="AB592" s="3"/>
       <c r="AC592" s="3"/>
     </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -19250,7 +19246,7 @@
       <c r="AB593" s="3"/>
       <c r="AC593" s="3"/>
     </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -19281,7 +19277,7 @@
       <c r="AB594" s="3"/>
       <c r="AC594" s="3"/>
     </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -19312,7 +19308,7 @@
       <c r="AB595" s="3"/>
       <c r="AC595" s="3"/>
     </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -19343,7 +19339,7 @@
       <c r="AB596" s="3"/>
       <c r="AC596" s="3"/>
     </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -19374,7 +19370,7 @@
       <c r="AB597" s="3"/>
       <c r="AC597" s="3"/>
     </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -19405,7 +19401,7 @@
       <c r="AB598" s="3"/>
       <c r="AC598" s="3"/>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -19436,7 +19432,7 @@
       <c r="AB599" s="3"/>
       <c r="AC599" s="3"/>
     </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -19467,7 +19463,7 @@
       <c r="AB600" s="3"/>
       <c r="AC600" s="3"/>
     </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -19498,7 +19494,7 @@
       <c r="AB601" s="3"/>
       <c r="AC601" s="3"/>
     </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -19529,7 +19525,7 @@
       <c r="AB602" s="3"/>
       <c r="AC602" s="3"/>
     </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -19560,7 +19556,7 @@
       <c r="AB603" s="3"/>
       <c r="AC603" s="3"/>
     </row>
-    <row r="604" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -19591,7 +19587,7 @@
       <c r="AB604" s="3"/>
       <c r="AC604" s="3"/>
     </row>
-    <row r="605" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -19622,7 +19618,7 @@
       <c r="AB605" s="3"/>
       <c r="AC605" s="3"/>
     </row>
-    <row r="606" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -19653,7 +19649,7 @@
       <c r="AB606" s="3"/>
       <c r="AC606" s="3"/>
     </row>
-    <row r="607" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -19684,7 +19680,7 @@
       <c r="AB607" s="3"/>
       <c r="AC607" s="3"/>
     </row>
-    <row r="608" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -19715,7 +19711,7 @@
       <c r="AB608" s="3"/>
       <c r="AC608" s="3"/>
     </row>
-    <row r="609" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -19746,7 +19742,7 @@
       <c r="AB609" s="3"/>
       <c r="AC609" s="3"/>
     </row>
-    <row r="610" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -19777,7 +19773,7 @@
       <c r="AB610" s="3"/>
       <c r="AC610" s="3"/>
     </row>
-    <row r="611" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -19808,7 +19804,7 @@
       <c r="AB611" s="3"/>
       <c r="AC611" s="3"/>
     </row>
-    <row r="612" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -19839,7 +19835,7 @@
       <c r="AB612" s="3"/>
       <c r="AC612" s="3"/>
     </row>
-    <row r="613" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -19870,7 +19866,7 @@
       <c r="AB613" s="3"/>
       <c r="AC613" s="3"/>
     </row>
-    <row r="614" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -19901,7 +19897,7 @@
       <c r="AB614" s="3"/>
       <c r="AC614" s="3"/>
     </row>
-    <row r="615" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -19932,7 +19928,7 @@
       <c r="AB615" s="3"/>
       <c r="AC615" s="3"/>
     </row>
-    <row r="616" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -19963,7 +19959,7 @@
       <c r="AB616" s="3"/>
       <c r="AC616" s="3"/>
     </row>
-    <row r="617" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -19994,7 +19990,7 @@
       <c r="AB617" s="3"/>
       <c r="AC617" s="3"/>
     </row>
-    <row r="618" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -20025,7 +20021,7 @@
       <c r="AB618" s="3"/>
       <c r="AC618" s="3"/>
     </row>
-    <row r="619" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -20056,7 +20052,7 @@
       <c r="AB619" s="3"/>
       <c r="AC619" s="3"/>
     </row>
-    <row r="620" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -20087,7 +20083,7 @@
       <c r="AB620" s="3"/>
       <c r="AC620" s="3"/>
     </row>
-    <row r="621" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -20118,7 +20114,7 @@
       <c r="AB621" s="3"/>
       <c r="AC621" s="3"/>
     </row>
-    <row r="622" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -20149,7 +20145,7 @@
       <c r="AB622" s="3"/>
       <c r="AC622" s="3"/>
     </row>
-    <row r="623" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -20180,7 +20176,7 @@
       <c r="AB623" s="3"/>
       <c r="AC623" s="3"/>
     </row>
-    <row r="624" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -20211,7 +20207,7 @@
       <c r="AB624" s="3"/>
       <c r="AC624" s="3"/>
     </row>
-    <row r="625" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -20242,7 +20238,7 @@
       <c r="AB625" s="3"/>
       <c r="AC625" s="3"/>
     </row>
-    <row r="626" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -20273,7 +20269,7 @@
       <c r="AB626" s="3"/>
       <c r="AC626" s="3"/>
     </row>
-    <row r="627" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -20304,7 +20300,7 @@
       <c r="AB627" s="3"/>
       <c r="AC627" s="3"/>
     </row>
-    <row r="628" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -20335,7 +20331,7 @@
       <c r="AB628" s="3"/>
       <c r="AC628" s="3"/>
     </row>
-    <row r="629" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -20366,7 +20362,7 @@
       <c r="AB629" s="3"/>
       <c r="AC629" s="3"/>
     </row>
-    <row r="630" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -20397,7 +20393,7 @@
       <c r="AB630" s="3"/>
       <c r="AC630" s="3"/>
     </row>
-    <row r="631" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -20428,7 +20424,7 @@
       <c r="AB631" s="3"/>
       <c r="AC631" s="3"/>
     </row>
-    <row r="632" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -20459,7 +20455,7 @@
       <c r="AB632" s="3"/>
       <c r="AC632" s="3"/>
     </row>
-    <row r="633" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -20490,7 +20486,7 @@
       <c r="AB633" s="3"/>
       <c r="AC633" s="3"/>
     </row>
-    <row r="634" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -20521,7 +20517,7 @@
       <c r="AB634" s="3"/>
       <c r="AC634" s="3"/>
     </row>
-    <row r="635" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -20552,7 +20548,7 @@
       <c r="AB635" s="3"/>
       <c r="AC635" s="3"/>
     </row>
-    <row r="636" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -20583,7 +20579,7 @@
       <c r="AB636" s="3"/>
       <c r="AC636" s="3"/>
     </row>
-    <row r="637" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -20614,7 +20610,7 @@
       <c r="AB637" s="3"/>
       <c r="AC637" s="3"/>
     </row>
-    <row r="638" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -20645,7 +20641,7 @@
       <c r="AB638" s="3"/>
       <c r="AC638" s="3"/>
     </row>
-    <row r="639" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -20676,7 +20672,7 @@
       <c r="AB639" s="3"/>
       <c r="AC639" s="3"/>
     </row>
-    <row r="640" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -20707,7 +20703,7 @@
       <c r="AB640" s="3"/>
       <c r="AC640" s="3"/>
     </row>
-    <row r="641" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -20738,7 +20734,7 @@
       <c r="AB641" s="3"/>
       <c r="AC641" s="3"/>
     </row>
-    <row r="642" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -20769,7 +20765,7 @@
       <c r="AB642" s="3"/>
       <c r="AC642" s="3"/>
     </row>
-    <row r="643" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -20800,7 +20796,7 @@
       <c r="AB643" s="3"/>
       <c r="AC643" s="3"/>
     </row>
-    <row r="644" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -20831,7 +20827,7 @@
       <c r="AB644" s="3"/>
       <c r="AC644" s="3"/>
     </row>
-    <row r="645" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -20862,7 +20858,7 @@
       <c r="AB645" s="3"/>
       <c r="AC645" s="3"/>
     </row>
-    <row r="646" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -20893,7 +20889,7 @@
       <c r="AB646" s="3"/>
       <c r="AC646" s="3"/>
     </row>
-    <row r="647" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -20924,7 +20920,7 @@
       <c r="AB647" s="3"/>
       <c r="AC647" s="3"/>
     </row>
-    <row r="648" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -20955,7 +20951,7 @@
       <c r="AB648" s="3"/>
       <c r="AC648" s="3"/>
     </row>
-    <row r="649" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -20986,7 +20982,7 @@
       <c r="AB649" s="3"/>
       <c r="AC649" s="3"/>
     </row>
-    <row r="650" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -21017,7 +21013,7 @@
       <c r="AB650" s="3"/>
       <c r="AC650" s="3"/>
     </row>
-    <row r="651" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -21048,7 +21044,7 @@
       <c r="AB651" s="3"/>
       <c r="AC651" s="3"/>
     </row>
-    <row r="652" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -21079,7 +21075,7 @@
       <c r="AB652" s="3"/>
       <c r="AC652" s="3"/>
     </row>
-    <row r="653" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -21110,7 +21106,7 @@
       <c r="AB653" s="3"/>
       <c r="AC653" s="3"/>
     </row>
-    <row r="654" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -21141,7 +21137,7 @@
       <c r="AB654" s="3"/>
       <c r="AC654" s="3"/>
     </row>
-    <row r="655" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -21172,7 +21168,7 @@
       <c r="AB655" s="3"/>
       <c r="AC655" s="3"/>
     </row>
-    <row r="656" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -21203,7 +21199,7 @@
       <c r="AB656" s="3"/>
       <c r="AC656" s="3"/>
     </row>
-    <row r="657" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -21234,7 +21230,7 @@
       <c r="AB657" s="3"/>
       <c r="AC657" s="3"/>
     </row>
-    <row r="658" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -21265,7 +21261,7 @@
       <c r="AB658" s="3"/>
       <c r="AC658" s="3"/>
     </row>
-    <row r="659" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -21296,7 +21292,7 @@
       <c r="AB659" s="3"/>
       <c r="AC659" s="3"/>
     </row>
-    <row r="660" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -21327,7 +21323,7 @@
       <c r="AB660" s="3"/>
       <c r="AC660" s="3"/>
     </row>
-    <row r="661" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -21358,7 +21354,7 @@
       <c r="AB661" s="3"/>
       <c r="AC661" s="3"/>
     </row>
-    <row r="662" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -21389,7 +21385,7 @@
       <c r="AB662" s="3"/>
       <c r="AC662" s="3"/>
     </row>
-    <row r="663" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -21420,7 +21416,7 @@
       <c r="AB663" s="3"/>
       <c r="AC663" s="3"/>
     </row>
-    <row r="664" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -21451,7 +21447,7 @@
       <c r="AB664" s="3"/>
       <c r="AC664" s="3"/>
     </row>
-    <row r="665" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -21482,7 +21478,7 @@
       <c r="AB665" s="3"/>
       <c r="AC665" s="3"/>
     </row>
-    <row r="666" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -21513,7 +21509,7 @@
       <c r="AB666" s="3"/>
       <c r="AC666" s="3"/>
     </row>
-    <row r="667" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -21544,7 +21540,7 @@
       <c r="AB667" s="3"/>
       <c r="AC667" s="3"/>
     </row>
-    <row r="668" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -21575,7 +21571,7 @@
       <c r="AB668" s="3"/>
       <c r="AC668" s="3"/>
     </row>
-    <row r="669" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -21606,7 +21602,7 @@
       <c r="AB669" s="3"/>
       <c r="AC669" s="3"/>
     </row>
-    <row r="670" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -21637,7 +21633,7 @@
       <c r="AB670" s="3"/>
       <c r="AC670" s="3"/>
     </row>
-    <row r="671" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -21668,7 +21664,7 @@
       <c r="AB671" s="3"/>
       <c r="AC671" s="3"/>
     </row>
-    <row r="672" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -21699,7 +21695,7 @@
       <c r="AB672" s="3"/>
       <c r="AC672" s="3"/>
     </row>
-    <row r="673" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -21730,7 +21726,7 @@
       <c r="AB673" s="3"/>
       <c r="AC673" s="3"/>
     </row>
-    <row r="674" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -21761,7 +21757,7 @@
       <c r="AB674" s="3"/>
       <c r="AC674" s="3"/>
     </row>
-    <row r="675" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -21792,7 +21788,7 @@
       <c r="AB675" s="3"/>
       <c r="AC675" s="3"/>
     </row>
-    <row r="676" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -21823,7 +21819,7 @@
       <c r="AB676" s="3"/>
       <c r="AC676" s="3"/>
     </row>
-    <row r="677" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -21854,7 +21850,7 @@
       <c r="AB677" s="3"/>
       <c r="AC677" s="3"/>
     </row>
-    <row r="678" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -21885,7 +21881,7 @@
       <c r="AB678" s="3"/>
       <c r="AC678" s="3"/>
     </row>
-    <row r="679" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -21916,7 +21912,7 @@
       <c r="AB679" s="3"/>
       <c r="AC679" s="3"/>
     </row>
-    <row r="680" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -21947,7 +21943,7 @@
       <c r="AB680" s="3"/>
       <c r="AC680" s="3"/>
     </row>
-    <row r="681" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -21978,7 +21974,7 @@
       <c r="AB681" s="3"/>
       <c r="AC681" s="3"/>
     </row>
-    <row r="682" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -22009,7 +22005,7 @@
       <c r="AB682" s="3"/>
       <c r="AC682" s="3"/>
     </row>
-    <row r="683" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -22040,7 +22036,7 @@
       <c r="AB683" s="3"/>
       <c r="AC683" s="3"/>
     </row>
-    <row r="684" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -22071,7 +22067,7 @@
       <c r="AB684" s="3"/>
       <c r="AC684" s="3"/>
     </row>
-    <row r="685" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -22102,7 +22098,7 @@
       <c r="AB685" s="3"/>
       <c r="AC685" s="3"/>
     </row>
-    <row r="686" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -22133,7 +22129,7 @@
       <c r="AB686" s="3"/>
       <c r="AC686" s="3"/>
     </row>
-    <row r="687" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -22164,7 +22160,7 @@
       <c r="AB687" s="3"/>
       <c r="AC687" s="3"/>
     </row>
-    <row r="688" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -22195,7 +22191,7 @@
       <c r="AB688" s="3"/>
       <c r="AC688" s="3"/>
     </row>
-    <row r="689" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -22226,7 +22222,7 @@
       <c r="AB689" s="3"/>
       <c r="AC689" s="3"/>
     </row>
-    <row r="690" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -22257,7 +22253,7 @@
       <c r="AB690" s="3"/>
       <c r="AC690" s="3"/>
     </row>
-    <row r="691" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -22288,7 +22284,7 @@
       <c r="AB691" s="3"/>
       <c r="AC691" s="3"/>
     </row>
-    <row r="692" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -22319,7 +22315,7 @@
       <c r="AB692" s="3"/>
       <c r="AC692" s="3"/>
     </row>
-    <row r="693" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -22350,7 +22346,7 @@
       <c r="AB693" s="3"/>
       <c r="AC693" s="3"/>
     </row>
-    <row r="694" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -22381,7 +22377,7 @@
       <c r="AB694" s="3"/>
       <c r="AC694" s="3"/>
     </row>
-    <row r="695" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -22412,7 +22408,7 @@
       <c r="AB695" s="3"/>
       <c r="AC695" s="3"/>
     </row>
-    <row r="696" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -22443,7 +22439,7 @@
       <c r="AB696" s="3"/>
       <c r="AC696" s="3"/>
     </row>
-    <row r="697" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -22474,7 +22470,7 @@
       <c r="AB697" s="3"/>
       <c r="AC697" s="3"/>
     </row>
-    <row r="698" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -22505,7 +22501,7 @@
       <c r="AB698" s="3"/>
       <c r="AC698" s="3"/>
     </row>
-    <row r="699" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -22536,7 +22532,7 @@
       <c r="AB699" s="3"/>
       <c r="AC699" s="3"/>
     </row>
-    <row r="700" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -22567,7 +22563,7 @@
       <c r="AB700" s="3"/>
       <c r="AC700" s="3"/>
     </row>
-    <row r="701" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -22598,7 +22594,7 @@
       <c r="AB701" s="3"/>
       <c r="AC701" s="3"/>
     </row>
-    <row r="702" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -22629,7 +22625,7 @@
       <c r="AB702" s="3"/>
       <c r="AC702" s="3"/>
     </row>
-    <row r="703" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -22660,7 +22656,7 @@
       <c r="AB703" s="3"/>
       <c r="AC703" s="3"/>
     </row>
-    <row r="704" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -22691,7 +22687,7 @@
       <c r="AB704" s="3"/>
       <c r="AC704" s="3"/>
     </row>
-    <row r="705" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -22722,7 +22718,7 @@
       <c r="AB705" s="3"/>
       <c r="AC705" s="3"/>
     </row>
-    <row r="706" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -22753,7 +22749,7 @@
       <c r="AB706" s="3"/>
       <c r="AC706" s="3"/>
     </row>
-    <row r="707" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -22784,7 +22780,7 @@
       <c r="AB707" s="3"/>
       <c r="AC707" s="3"/>
     </row>
-    <row r="708" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -22815,7 +22811,7 @@
       <c r="AB708" s="3"/>
       <c r="AC708" s="3"/>
     </row>
-    <row r="709" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -22846,7 +22842,7 @@
       <c r="AB709" s="3"/>
       <c r="AC709" s="3"/>
     </row>
-    <row r="710" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -22877,7 +22873,7 @@
       <c r="AB710" s="3"/>
       <c r="AC710" s="3"/>
     </row>
-    <row r="711" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -22908,7 +22904,7 @@
       <c r="AB711" s="3"/>
       <c r="AC711" s="3"/>
     </row>
-    <row r="712" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -22939,7 +22935,7 @@
       <c r="AB712" s="3"/>
       <c r="AC712" s="3"/>
     </row>
-    <row r="713" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -22970,7 +22966,7 @@
       <c r="AB713" s="3"/>
       <c r="AC713" s="3"/>
     </row>
-    <row r="714" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -23001,7 +22997,7 @@
       <c r="AB714" s="3"/>
       <c r="AC714" s="3"/>
     </row>
-    <row r="715" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -23032,7 +23028,7 @@
       <c r="AB715" s="3"/>
       <c r="AC715" s="3"/>
     </row>
-    <row r="716" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -23063,7 +23059,7 @@
       <c r="AB716" s="3"/>
       <c r="AC716" s="3"/>
     </row>
-    <row r="717" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -23094,7 +23090,7 @@
       <c r="AB717" s="3"/>
       <c r="AC717" s="3"/>
     </row>
-    <row r="718" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -23125,7 +23121,7 @@
       <c r="AB718" s="3"/>
       <c r="AC718" s="3"/>
     </row>
-    <row r="719" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -23156,7 +23152,7 @@
       <c r="AB719" s="3"/>
       <c r="AC719" s="3"/>
     </row>
-    <row r="720" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -23187,7 +23183,7 @@
       <c r="AB720" s="3"/>
       <c r="AC720" s="3"/>
     </row>
-    <row r="721" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -23218,7 +23214,7 @@
       <c r="AB721" s="3"/>
       <c r="AC721" s="3"/>
     </row>
-    <row r="722" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -23249,7 +23245,7 @@
       <c r="AB722" s="3"/>
       <c r="AC722" s="3"/>
     </row>
-    <row r="723" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -23280,7 +23276,7 @@
       <c r="AB723" s="3"/>
       <c r="AC723" s="3"/>
     </row>
-    <row r="724" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -23311,7 +23307,7 @@
       <c r="AB724" s="3"/>
       <c r="AC724" s="3"/>
     </row>
-    <row r="725" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -23342,7 +23338,7 @@
       <c r="AB725" s="3"/>
       <c r="AC725" s="3"/>
     </row>
-    <row r="726" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -23373,7 +23369,7 @@
       <c r="AB726" s="3"/>
       <c r="AC726" s="3"/>
     </row>
-    <row r="727" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -23404,7 +23400,7 @@
       <c r="AB727" s="3"/>
       <c r="AC727" s="3"/>
     </row>
-    <row r="728" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -23435,7 +23431,7 @@
       <c r="AB728" s="3"/>
       <c r="AC728" s="3"/>
     </row>
-    <row r="729" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -23466,7 +23462,7 @@
       <c r="AB729" s="3"/>
       <c r="AC729" s="3"/>
     </row>
-    <row r="730" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -23497,7 +23493,7 @@
       <c r="AB730" s="3"/>
       <c r="AC730" s="3"/>
     </row>
-    <row r="731" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -23528,7 +23524,7 @@
       <c r="AB731" s="3"/>
       <c r="AC731" s="3"/>
     </row>
-    <row r="732" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -23559,7 +23555,7 @@
       <c r="AB732" s="3"/>
       <c r="AC732" s="3"/>
     </row>
-    <row r="733" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -23590,7 +23586,7 @@
       <c r="AB733" s="3"/>
       <c r="AC733" s="3"/>
     </row>
-    <row r="734" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -23621,7 +23617,7 @@
       <c r="AB734" s="3"/>
       <c r="AC734" s="3"/>
     </row>
-    <row r="735" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -23652,7 +23648,7 @@
       <c r="AB735" s="3"/>
       <c r="AC735" s="3"/>
     </row>
-    <row r="736" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -23683,7 +23679,7 @@
       <c r="AB736" s="3"/>
       <c r="AC736" s="3"/>
     </row>
-    <row r="737" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -23714,7 +23710,7 @@
       <c r="AB737" s="3"/>
       <c r="AC737" s="3"/>
     </row>
-    <row r="738" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -23745,7 +23741,7 @@
       <c r="AB738" s="3"/>
       <c r="AC738" s="3"/>
     </row>
-    <row r="739" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -23776,7 +23772,7 @@
       <c r="AB739" s="3"/>
       <c r="AC739" s="3"/>
     </row>
-    <row r="740" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -23807,7 +23803,7 @@
       <c r="AB740" s="3"/>
       <c r="AC740" s="3"/>
     </row>
-    <row r="741" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -23838,7 +23834,7 @@
       <c r="AB741" s="3"/>
       <c r="AC741" s="3"/>
     </row>
-    <row r="742" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -23869,7 +23865,7 @@
       <c r="AB742" s="3"/>
       <c r="AC742" s="3"/>
     </row>
-    <row r="743" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -23900,7 +23896,7 @@
       <c r="AB743" s="3"/>
       <c r="AC743" s="3"/>
     </row>
-    <row r="744" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -23931,7 +23927,7 @@
       <c r="AB744" s="3"/>
       <c r="AC744" s="3"/>
     </row>
-    <row r="745" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -23962,7 +23958,7 @@
       <c r="AB745" s="3"/>
       <c r="AC745" s="3"/>
     </row>
-    <row r="746" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -23993,7 +23989,7 @@
       <c r="AB746" s="3"/>
       <c r="AC746" s="3"/>
     </row>
-    <row r="747" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -24024,7 +24020,7 @@
       <c r="AB747" s="3"/>
       <c r="AC747" s="3"/>
     </row>
-    <row r="748" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -24055,7 +24051,7 @@
       <c r="AB748" s="3"/>
       <c r="AC748" s="3"/>
     </row>
-    <row r="749" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -24086,7 +24082,7 @@
       <c r="AB749" s="3"/>
       <c r="AC749" s="3"/>
     </row>
-    <row r="750" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -24117,7 +24113,7 @@
       <c r="AB750" s="3"/>
       <c r="AC750" s="3"/>
     </row>
-    <row r="751" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -24148,7 +24144,7 @@
       <c r="AB751" s="3"/>
       <c r="AC751" s="3"/>
     </row>
-    <row r="752" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -24179,7 +24175,7 @@
       <c r="AB752" s="3"/>
       <c r="AC752" s="3"/>
     </row>
-    <row r="753" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -24210,7 +24206,7 @@
       <c r="AB753" s="3"/>
       <c r="AC753" s="3"/>
     </row>
-    <row r="754" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -24241,7 +24237,7 @@
       <c r="AB754" s="3"/>
       <c r="AC754" s="3"/>
     </row>
-    <row r="755" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -24272,7 +24268,7 @@
       <c r="AB755" s="3"/>
       <c r="AC755" s="3"/>
     </row>
-    <row r="756" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -24303,7 +24299,7 @@
       <c r="AB756" s="3"/>
       <c r="AC756" s="3"/>
     </row>
-    <row r="757" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -24334,7 +24330,7 @@
       <c r="AB757" s="3"/>
       <c r="AC757" s="3"/>
     </row>
-    <row r="758" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -24365,7 +24361,7 @@
       <c r="AB758" s="3"/>
       <c r="AC758" s="3"/>
     </row>
-    <row r="759" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -24396,7 +24392,7 @@
       <c r="AB759" s="3"/>
       <c r="AC759" s="3"/>
     </row>
-    <row r="760" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -24427,7 +24423,7 @@
       <c r="AB760" s="3"/>
       <c r="AC760" s="3"/>
     </row>
-    <row r="761" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -24458,7 +24454,7 @@
       <c r="AB761" s="3"/>
       <c r="AC761" s="3"/>
     </row>
-    <row r="762" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -24489,7 +24485,7 @@
       <c r="AB762" s="3"/>
       <c r="AC762" s="3"/>
     </row>
-    <row r="763" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -24520,7 +24516,7 @@
       <c r="AB763" s="3"/>
       <c r="AC763" s="3"/>
     </row>
-    <row r="764" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -24551,7 +24547,7 @@
       <c r="AB764" s="3"/>
       <c r="AC764" s="3"/>
     </row>
-    <row r="765" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -24582,7 +24578,7 @@
       <c r="AB765" s="3"/>
       <c r="AC765" s="3"/>
     </row>
-    <row r="766" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -24613,7 +24609,7 @@
       <c r="AB766" s="3"/>
       <c r="AC766" s="3"/>
     </row>
-    <row r="767" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -24644,7 +24640,7 @@
       <c r="AB767" s="3"/>
       <c r="AC767" s="3"/>
     </row>
-    <row r="768" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -24675,7 +24671,7 @@
       <c r="AB768" s="3"/>
       <c r="AC768" s="3"/>
     </row>
-    <row r="769" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -24706,7 +24702,7 @@
       <c r="AB769" s="3"/>
       <c r="AC769" s="3"/>
     </row>
-    <row r="770" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -24737,7 +24733,7 @@
       <c r="AB770" s="3"/>
       <c r="AC770" s="3"/>
     </row>
-    <row r="771" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -24768,7 +24764,7 @@
       <c r="AB771" s="3"/>
       <c r="AC771" s="3"/>
     </row>
-    <row r="772" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -24799,7 +24795,7 @@
       <c r="AB772" s="3"/>
       <c r="AC772" s="3"/>
     </row>
-    <row r="773" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -24830,7 +24826,7 @@
       <c r="AB773" s="3"/>
       <c r="AC773" s="3"/>
     </row>
-    <row r="774" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -24861,7 +24857,7 @@
       <c r="AB774" s="3"/>
       <c r="AC774" s="3"/>
     </row>
-    <row r="775" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -24892,7 +24888,7 @@
       <c r="AB775" s="3"/>
       <c r="AC775" s="3"/>
     </row>
-    <row r="776" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -24923,7 +24919,7 @@
       <c r="AB776" s="3"/>
       <c r="AC776" s="3"/>
     </row>
-    <row r="777" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -24954,7 +24950,7 @@
       <c r="AB777" s="3"/>
       <c r="AC777" s="3"/>
     </row>
-    <row r="778" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -24985,7 +24981,7 @@
       <c r="AB778" s="3"/>
       <c r="AC778" s="3"/>
     </row>
-    <row r="779" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -25016,7 +25012,7 @@
       <c r="AB779" s="3"/>
       <c r="AC779" s="3"/>
     </row>
-    <row r="780" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -25047,7 +25043,7 @@
       <c r="AB780" s="3"/>
       <c r="AC780" s="3"/>
     </row>
-    <row r="781" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -25078,7 +25074,7 @@
       <c r="AB781" s="3"/>
       <c r="AC781" s="3"/>
     </row>
-    <row r="782" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -25109,7 +25105,7 @@
       <c r="AB782" s="3"/>
       <c r="AC782" s="3"/>
     </row>
-    <row r="783" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -25140,7 +25136,7 @@
       <c r="AB783" s="3"/>
       <c r="AC783" s="3"/>
     </row>
-    <row r="784" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -25171,7 +25167,7 @@
       <c r="AB784" s="3"/>
       <c r="AC784" s="3"/>
     </row>
-    <row r="785" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -25202,7 +25198,7 @@
       <c r="AB785" s="3"/>
       <c r="AC785" s="3"/>
     </row>
-    <row r="786" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -25233,7 +25229,7 @@
       <c r="AB786" s="3"/>
       <c r="AC786" s="3"/>
     </row>
-    <row r="787" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -25264,7 +25260,7 @@
       <c r="AB787" s="3"/>
       <c r="AC787" s="3"/>
     </row>
-    <row r="788" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -25295,7 +25291,7 @@
       <c r="AB788" s="3"/>
       <c r="AC788" s="3"/>
     </row>
-    <row r="789" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -25326,7 +25322,7 @@
       <c r="AB789" s="3"/>
       <c r="AC789" s="3"/>
     </row>
-    <row r="790" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -25357,7 +25353,7 @@
       <c r="AB790" s="3"/>
       <c r="AC790" s="3"/>
     </row>
-    <row r="791" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -25388,7 +25384,7 @@
       <c r="AB791" s="3"/>
       <c r="AC791" s="3"/>
     </row>
-    <row r="792" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -25419,7 +25415,7 @@
       <c r="AB792" s="3"/>
       <c r="AC792" s="3"/>
     </row>
-    <row r="793" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -25450,7 +25446,7 @@
       <c r="AB793" s="3"/>
       <c r="AC793" s="3"/>
     </row>
-    <row r="794" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -25481,7 +25477,7 @@
       <c r="AB794" s="3"/>
       <c r="AC794" s="3"/>
     </row>
-    <row r="795" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -25512,7 +25508,7 @@
       <c r="AB795" s="3"/>
       <c r="AC795" s="3"/>
     </row>
-    <row r="796" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -25543,7 +25539,7 @@
       <c r="AB796" s="3"/>
       <c r="AC796" s="3"/>
     </row>
-    <row r="797" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -25574,7 +25570,7 @@
       <c r="AB797" s="3"/>
       <c r="AC797" s="3"/>
     </row>
-    <row r="798" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -25605,7 +25601,7 @@
       <c r="AB798" s="3"/>
       <c r="AC798" s="3"/>
     </row>
-    <row r="799" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -25636,7 +25632,7 @@
       <c r="AB799" s="3"/>
       <c r="AC799" s="3"/>
     </row>
-    <row r="800" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -25667,7 +25663,7 @@
       <c r="AB800" s="3"/>
       <c r="AC800" s="3"/>
     </row>
-    <row r="801" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -25698,7 +25694,7 @@
       <c r="AB801" s="3"/>
       <c r="AC801" s="3"/>
     </row>
-    <row r="802" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -25729,7 +25725,7 @@
       <c r="AB802" s="3"/>
       <c r="AC802" s="3"/>
     </row>
-    <row r="803" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -25760,7 +25756,7 @@
       <c r="AB803" s="3"/>
       <c r="AC803" s="3"/>
     </row>
-    <row r="804" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -25791,7 +25787,7 @@
       <c r="AB804" s="3"/>
       <c r="AC804" s="3"/>
     </row>
-    <row r="805" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -25822,7 +25818,7 @@
       <c r="AB805" s="3"/>
       <c r="AC805" s="3"/>
     </row>
-    <row r="806" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -25853,7 +25849,7 @@
       <c r="AB806" s="3"/>
       <c r="AC806" s="3"/>
     </row>
-    <row r="807" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -25884,7 +25880,7 @@
       <c r="AB807" s="3"/>
       <c r="AC807" s="3"/>
     </row>
-    <row r="808" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -25915,7 +25911,7 @@
       <c r="AB808" s="3"/>
       <c r="AC808" s="3"/>
     </row>
-    <row r="809" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -25946,7 +25942,7 @@
       <c r="AB809" s="3"/>
       <c r="AC809" s="3"/>
     </row>
-    <row r="810" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -25977,7 +25973,7 @@
       <c r="AB810" s="3"/>
       <c r="AC810" s="3"/>
     </row>
-    <row r="811" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -26008,7 +26004,7 @@
       <c r="AB811" s="3"/>
       <c r="AC811" s="3"/>
     </row>
-    <row r="812" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -26039,7 +26035,7 @@
       <c r="AB812" s="3"/>
       <c r="AC812" s="3"/>
     </row>
-    <row r="813" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -26070,7 +26066,7 @@
       <c r="AB813" s="3"/>
       <c r="AC813" s="3"/>
     </row>
-    <row r="814" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -26101,7 +26097,7 @@
       <c r="AB814" s="3"/>
       <c r="AC814" s="3"/>
     </row>
-    <row r="815" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -26132,7 +26128,7 @@
       <c r="AB815" s="3"/>
       <c r="AC815" s="3"/>
     </row>
-    <row r="816" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -26163,7 +26159,7 @@
       <c r="AB816" s="3"/>
       <c r="AC816" s="3"/>
     </row>
-    <row r="817" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -26194,7 +26190,7 @@
       <c r="AB817" s="3"/>
       <c r="AC817" s="3"/>
     </row>
-    <row r="818" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -26225,7 +26221,7 @@
       <c r="AB818" s="3"/>
       <c r="AC818" s="3"/>
     </row>
-    <row r="819" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -26256,7 +26252,7 @@
       <c r="AB819" s="3"/>
       <c r="AC819" s="3"/>
     </row>
-    <row r="820" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -26287,7 +26283,7 @@
       <c r="AB820" s="3"/>
       <c r="AC820" s="3"/>
     </row>
-    <row r="821" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -26318,7 +26314,7 @@
       <c r="AB821" s="3"/>
       <c r="AC821" s="3"/>
     </row>
-    <row r="822" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -26349,7 +26345,7 @@
       <c r="AB822" s="3"/>
       <c r="AC822" s="3"/>
     </row>
-    <row r="823" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -26380,7 +26376,7 @@
       <c r="AB823" s="3"/>
       <c r="AC823" s="3"/>
     </row>
-    <row r="824" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -26411,7 +26407,7 @@
       <c r="AB824" s="3"/>
       <c r="AC824" s="3"/>
     </row>
-    <row r="825" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -26442,7 +26438,7 @@
       <c r="AB825" s="3"/>
       <c r="AC825" s="3"/>
     </row>
-    <row r="826" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -26473,7 +26469,7 @@
       <c r="AB826" s="3"/>
       <c r="AC826" s="3"/>
     </row>
-    <row r="827" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -26504,7 +26500,7 @@
       <c r="AB827" s="3"/>
       <c r="AC827" s="3"/>
     </row>
-    <row r="828" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -26535,7 +26531,7 @@
       <c r="AB828" s="3"/>
       <c r="AC828" s="3"/>
     </row>
-    <row r="829" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -26566,7 +26562,7 @@
       <c r="AB829" s="3"/>
       <c r="AC829" s="3"/>
     </row>
-    <row r="830" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -26597,7 +26593,7 @@
       <c r="AB830" s="3"/>
       <c r="AC830" s="3"/>
     </row>
-    <row r="831" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -26628,7 +26624,7 @@
       <c r="AB831" s="3"/>
       <c r="AC831" s="3"/>
     </row>
-    <row r="832" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -26659,7 +26655,7 @@
       <c r="AB832" s="3"/>
       <c r="AC832" s="3"/>
     </row>
-    <row r="833" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -26690,7 +26686,7 @@
       <c r="AB833" s="3"/>
       <c r="AC833" s="3"/>
     </row>
-    <row r="834" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -26721,7 +26717,7 @@
       <c r="AB834" s="3"/>
       <c r="AC834" s="3"/>
     </row>
-    <row r="835" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -26752,7 +26748,7 @@
       <c r="AB835" s="3"/>
       <c r="AC835" s="3"/>
     </row>
-    <row r="836" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -26783,7 +26779,7 @@
       <c r="AB836" s="3"/>
       <c r="AC836" s="3"/>
     </row>
-    <row r="837" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -26814,7 +26810,7 @@
       <c r="AB837" s="3"/>
       <c r="AC837" s="3"/>
     </row>
-    <row r="838" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -26845,7 +26841,7 @@
       <c r="AB838" s="3"/>
       <c r="AC838" s="3"/>
     </row>
-    <row r="839" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -26876,7 +26872,7 @@
       <c r="AB839" s="3"/>
       <c r="AC839" s="3"/>
     </row>
-    <row r="840" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -26907,7 +26903,7 @@
       <c r="AB840" s="3"/>
       <c r="AC840" s="3"/>
     </row>
-    <row r="841" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -26938,7 +26934,7 @@
       <c r="AB841" s="3"/>
       <c r="AC841" s="3"/>
     </row>
-    <row r="842" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -26969,7 +26965,7 @@
       <c r="AB842" s="3"/>
       <c r="AC842" s="3"/>
     </row>
-    <row r="843" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -27000,7 +26996,7 @@
       <c r="AB843" s="3"/>
       <c r="AC843" s="3"/>
     </row>
-    <row r="844" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -27031,7 +27027,7 @@
       <c r="AB844" s="3"/>
       <c r="AC844" s="3"/>
     </row>
-    <row r="845" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -27062,7 +27058,7 @@
       <c r="AB845" s="3"/>
       <c r="AC845" s="3"/>
     </row>
-    <row r="846" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -27093,7 +27089,7 @@
       <c r="AB846" s="3"/>
       <c r="AC846" s="3"/>
     </row>
-    <row r="847" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -27124,7 +27120,7 @@
       <c r="AB847" s="3"/>
       <c r="AC847" s="3"/>
     </row>
-    <row r="848" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -27155,7 +27151,7 @@
       <c r="AB848" s="3"/>
       <c r="AC848" s="3"/>
     </row>
-    <row r="849" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -27186,7 +27182,7 @@
       <c r="AB849" s="3"/>
       <c r="AC849" s="3"/>
     </row>
-    <row r="850" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -27217,7 +27213,7 @@
       <c r="AB850" s="3"/>
       <c r="AC850" s="3"/>
     </row>
-    <row r="851" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -27248,7 +27244,7 @@
       <c r="AB851" s="3"/>
       <c r="AC851" s="3"/>
     </row>
-    <row r="852" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -27279,7 +27275,7 @@
       <c r="AB852" s="3"/>
       <c r="AC852" s="3"/>
     </row>
-    <row r="853" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -27310,7 +27306,7 @@
       <c r="AB853" s="3"/>
       <c r="AC853" s="3"/>
     </row>
-    <row r="854" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -27341,7 +27337,7 @@
       <c r="AB854" s="3"/>
       <c r="AC854" s="3"/>
     </row>
-    <row r="855" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -27372,7 +27368,7 @@
       <c r="AB855" s="3"/>
       <c r="AC855" s="3"/>
     </row>
-    <row r="856" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -27403,7 +27399,7 @@
       <c r="AB856" s="3"/>
       <c r="AC856" s="3"/>
     </row>
-    <row r="857" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -27434,7 +27430,7 @@
       <c r="AB857" s="3"/>
       <c r="AC857" s="3"/>
     </row>
-    <row r="858" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -27465,7 +27461,7 @@
       <c r="AB858" s="3"/>
       <c r="AC858" s="3"/>
     </row>
-    <row r="859" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -27496,7 +27492,7 @@
       <c r="AB859" s="3"/>
       <c r="AC859" s="3"/>
     </row>
-    <row r="860" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -27527,7 +27523,7 @@
       <c r="AB860" s="3"/>
       <c r="AC860" s="3"/>
     </row>
-    <row r="861" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -27558,7 +27554,7 @@
       <c r="AB861" s="3"/>
       <c r="AC861" s="3"/>
     </row>
-    <row r="862" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -27589,7 +27585,7 @@
       <c r="AB862" s="3"/>
       <c r="AC862" s="3"/>
     </row>
-    <row r="863" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -27620,7 +27616,7 @@
       <c r="AB863" s="3"/>
       <c r="AC863" s="3"/>
     </row>
-    <row r="864" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -27651,7 +27647,7 @@
       <c r="AB864" s="3"/>
       <c r="AC864" s="3"/>
     </row>
-    <row r="865" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -27682,7 +27678,7 @@
       <c r="AB865" s="3"/>
       <c r="AC865" s="3"/>
     </row>
-    <row r="866" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -27713,7 +27709,7 @@
       <c r="AB866" s="3"/>
       <c r="AC866" s="3"/>
     </row>
-    <row r="867" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -27744,7 +27740,7 @@
       <c r="AB867" s="3"/>
       <c r="AC867" s="3"/>
     </row>
-    <row r="868" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -27775,7 +27771,7 @@
       <c r="AB868" s="3"/>
       <c r="AC868" s="3"/>
     </row>
-    <row r="869" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -27806,7 +27802,7 @@
       <c r="AB869" s="3"/>
       <c r="AC869" s="3"/>
     </row>
-    <row r="870" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -27837,7 +27833,7 @@
       <c r="AB870" s="3"/>
       <c r="AC870" s="3"/>
     </row>
-    <row r="871" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -27868,7 +27864,7 @@
       <c r="AB871" s="3"/>
       <c r="AC871" s="3"/>
     </row>
-    <row r="872" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -27899,7 +27895,7 @@
       <c r="AB872" s="3"/>
       <c r="AC872" s="3"/>
     </row>
-    <row r="873" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -27930,7 +27926,7 @@
       <c r="AB873" s="3"/>
       <c r="AC873" s="3"/>
     </row>
-    <row r="874" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -27961,7 +27957,7 @@
       <c r="AB874" s="3"/>
       <c r="AC874" s="3"/>
     </row>
-    <row r="875" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -27992,7 +27988,7 @@
       <c r="AB875" s="3"/>
       <c r="AC875" s="3"/>
     </row>
-    <row r="876" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -28023,7 +28019,7 @@
       <c r="AB876" s="3"/>
       <c r="AC876" s="3"/>
     </row>
-    <row r="877" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -28054,7 +28050,7 @@
       <c r="AB877" s="3"/>
       <c r="AC877" s="3"/>
     </row>
-    <row r="878" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -28085,7 +28081,7 @@
       <c r="AB878" s="3"/>
       <c r="AC878" s="3"/>
     </row>
-    <row r="879" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -28116,7 +28112,7 @@
       <c r="AB879" s="3"/>
       <c r="AC879" s="3"/>
     </row>
-    <row r="880" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -28147,7 +28143,7 @@
       <c r="AB880" s="3"/>
       <c r="AC880" s="3"/>
     </row>
-    <row r="881" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -28178,7 +28174,7 @@
       <c r="AB881" s="3"/>
       <c r="AC881" s="3"/>
     </row>
-    <row r="882" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -28209,7 +28205,7 @@
       <c r="AB882" s="3"/>
       <c r="AC882" s="3"/>
     </row>
-    <row r="883" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -28240,7 +28236,7 @@
       <c r="AB883" s="3"/>
       <c r="AC883" s="3"/>
     </row>
-    <row r="884" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -28271,7 +28267,7 @@
       <c r="AB884" s="3"/>
       <c r="AC884" s="3"/>
     </row>
-    <row r="885" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -28302,7 +28298,7 @@
       <c r="AB885" s="3"/>
       <c r="AC885" s="3"/>
     </row>
-    <row r="886" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -28333,7 +28329,7 @@
       <c r="AB886" s="3"/>
       <c r="AC886" s="3"/>
     </row>
-    <row r="887" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -28364,7 +28360,7 @@
       <c r="AB887" s="3"/>
       <c r="AC887" s="3"/>
     </row>
-    <row r="888" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -28395,7 +28391,7 @@
       <c r="AB888" s="3"/>
       <c r="AC888" s="3"/>
     </row>
-    <row r="889" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -28426,7 +28422,7 @@
       <c r="AB889" s="3"/>
       <c r="AC889" s="3"/>
     </row>
-    <row r="890" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -28457,7 +28453,7 @@
       <c r="AB890" s="3"/>
       <c r="AC890" s="3"/>
     </row>
-    <row r="891" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -28488,7 +28484,7 @@
       <c r="AB891" s="3"/>
       <c r="AC891" s="3"/>
     </row>
-    <row r="892" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -28519,7 +28515,7 @@
       <c r="AB892" s="3"/>
       <c r="AC892" s="3"/>
     </row>
-    <row r="893" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -28550,7 +28546,7 @@
       <c r="AB893" s="3"/>
       <c r="AC893" s="3"/>
     </row>
-    <row r="894" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -28581,7 +28577,7 @@
       <c r="AB894" s="3"/>
       <c r="AC894" s="3"/>
     </row>
-    <row r="895" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -28612,7 +28608,7 @@
       <c r="AB895" s="3"/>
       <c r="AC895" s="3"/>
     </row>
-    <row r="896" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -28643,7 +28639,7 @@
       <c r="AB896" s="3"/>
       <c r="AC896" s="3"/>
     </row>
-    <row r="897" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -28674,7 +28670,7 @@
       <c r="AB897" s="3"/>
       <c r="AC897" s="3"/>
     </row>
-    <row r="898" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -28705,7 +28701,7 @@
       <c r="AB898" s="3"/>
       <c r="AC898" s="3"/>
     </row>
-    <row r="899" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -28736,7 +28732,7 @@
       <c r="AB899" s="3"/>
       <c r="AC899" s="3"/>
     </row>
-    <row r="900" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -28767,7 +28763,7 @@
       <c r="AB900" s="3"/>
       <c r="AC900" s="3"/>
     </row>
-    <row r="901" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -28798,7 +28794,7 @@
       <c r="AB901" s="3"/>
       <c r="AC901" s="3"/>
     </row>
-    <row r="902" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -28829,7 +28825,7 @@
       <c r="AB902" s="3"/>
       <c r="AC902" s="3"/>
     </row>
-    <row r="903" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -28860,7 +28856,7 @@
       <c r="AB903" s="3"/>
       <c r="AC903" s="3"/>
     </row>
-    <row r="904" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -28891,7 +28887,7 @@
       <c r="AB904" s="3"/>
       <c r="AC904" s="3"/>
     </row>
-    <row r="905" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -28922,7 +28918,7 @@
       <c r="AB905" s="3"/>
       <c r="AC905" s="3"/>
     </row>
-    <row r="906" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -28953,7 +28949,7 @@
       <c r="AB906" s="3"/>
       <c r="AC906" s="3"/>
     </row>
-    <row r="907" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -28984,7 +28980,7 @@
       <c r="AB907" s="3"/>
       <c r="AC907" s="3"/>
     </row>
-    <row r="908" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -29015,7 +29011,7 @@
       <c r="AB908" s="3"/>
       <c r="AC908" s="3"/>
     </row>
-    <row r="909" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -29046,7 +29042,7 @@
       <c r="AB909" s="3"/>
       <c r="AC909" s="3"/>
     </row>
-    <row r="910" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -29077,7 +29073,7 @@
       <c r="AB910" s="3"/>
       <c r="AC910" s="3"/>
     </row>
-    <row r="911" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -29108,7 +29104,7 @@
       <c r="AB911" s="3"/>
       <c r="AC911" s="3"/>
     </row>
-    <row r="912" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -29139,7 +29135,7 @@
       <c r="AB912" s="3"/>
       <c r="AC912" s="3"/>
     </row>
-    <row r="913" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -29170,7 +29166,7 @@
       <c r="AB913" s="3"/>
       <c r="AC913" s="3"/>
     </row>
-    <row r="914" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -29201,7 +29197,7 @@
       <c r="AB914" s="3"/>
       <c r="AC914" s="3"/>
     </row>
-    <row r="915" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -29232,7 +29228,7 @@
       <c r="AB915" s="3"/>
       <c r="AC915" s="3"/>
     </row>
-    <row r="916" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -29263,7 +29259,7 @@
       <c r="AB916" s="3"/>
       <c r="AC916" s="3"/>
     </row>
-    <row r="917" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -29294,7 +29290,7 @@
       <c r="AB917" s="3"/>
       <c r="AC917" s="3"/>
     </row>
-    <row r="918" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -29325,7 +29321,7 @@
       <c r="AB918" s="3"/>
       <c r="AC918" s="3"/>
     </row>
-    <row r="919" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -29356,7 +29352,7 @@
       <c r="AB919" s="3"/>
       <c r="AC919" s="3"/>
     </row>
-    <row r="920" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -29387,7 +29383,7 @@
       <c r="AB920" s="3"/>
       <c r="AC920" s="3"/>
     </row>
-    <row r="921" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -29418,7 +29414,7 @@
       <c r="AB921" s="3"/>
       <c r="AC921" s="3"/>
     </row>
-    <row r="922" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -29449,7 +29445,7 @@
       <c r="AB922" s="3"/>
       <c r="AC922" s="3"/>
     </row>
-    <row r="923" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -29480,7 +29476,7 @@
       <c r="AB923" s="3"/>
       <c r="AC923" s="3"/>
     </row>
-    <row r="924" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -29511,7 +29507,7 @@
       <c r="AB924" s="3"/>
       <c r="AC924" s="3"/>
     </row>
-    <row r="925" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -29542,7 +29538,7 @@
       <c r="AB925" s="3"/>
       <c r="AC925" s="3"/>
     </row>
-    <row r="926" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -29573,7 +29569,7 @@
       <c r="AB926" s="3"/>
       <c r="AC926" s="3"/>
     </row>
-    <row r="927" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -29604,7 +29600,7 @@
       <c r="AB927" s="3"/>
       <c r="AC927" s="3"/>
     </row>
-    <row r="928" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -29635,7 +29631,7 @@
       <c r="AB928" s="3"/>
       <c r="AC928" s="3"/>
     </row>
-    <row r="929" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -29666,7 +29662,7 @@
       <c r="AB929" s="3"/>
       <c r="AC929" s="3"/>
     </row>
-    <row r="930" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -29697,7 +29693,7 @@
       <c r="AB930" s="3"/>
       <c r="AC930" s="3"/>
     </row>
-    <row r="931" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -29728,7 +29724,7 @@
       <c r="AB931" s="3"/>
       <c r="AC931" s="3"/>
     </row>
-    <row r="932" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -29759,7 +29755,7 @@
       <c r="AB932" s="3"/>
       <c r="AC932" s="3"/>
     </row>
-    <row r="933" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -29790,7 +29786,7 @@
       <c r="AB933" s="3"/>
       <c r="AC933" s="3"/>
     </row>
-    <row r="934" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -29821,7 +29817,7 @@
       <c r="AB934" s="3"/>
       <c r="AC934" s="3"/>
     </row>
-    <row r="935" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -29852,7 +29848,7 @@
       <c r="AB935" s="3"/>
       <c r="AC935" s="3"/>
     </row>
-    <row r="936" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -29883,7 +29879,7 @@
       <c r="AB936" s="3"/>
       <c r="AC936" s="3"/>
     </row>
-    <row r="937" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -29914,7 +29910,7 @@
       <c r="AB937" s="3"/>
       <c r="AC937" s="3"/>
     </row>
-    <row r="938" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -29945,7 +29941,7 @@
       <c r="AB938" s="3"/>
       <c r="AC938" s="3"/>
     </row>
-    <row r="939" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -29976,7 +29972,7 @@
       <c r="AB939" s="3"/>
       <c r="AC939" s="3"/>
     </row>
-    <row r="940" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -30007,7 +30003,7 @@
       <c r="AB940" s="3"/>
       <c r="AC940" s="3"/>
     </row>
-    <row r="941" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -30038,7 +30034,7 @@
       <c r="AB941" s="3"/>
       <c r="AC941" s="3"/>
     </row>
-    <row r="942" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -30069,7 +30065,7 @@
       <c r="AB942" s="3"/>
       <c r="AC942" s="3"/>
     </row>
-    <row r="943" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -30100,7 +30096,7 @@
       <c r="AB943" s="3"/>
       <c r="AC943" s="3"/>
     </row>
-    <row r="944" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -30131,7 +30127,7 @@
       <c r="AB944" s="3"/>
       <c r="AC944" s="3"/>
     </row>
-    <row r="945" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -30162,7 +30158,7 @@
       <c r="AB945" s="3"/>
       <c r="AC945" s="3"/>
     </row>
-    <row r="946" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -30193,7 +30189,7 @@
       <c r="AB946" s="3"/>
       <c r="AC946" s="3"/>
     </row>
-    <row r="947" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -30224,7 +30220,7 @@
       <c r="AB947" s="3"/>
       <c r="AC947" s="3"/>
     </row>
-    <row r="948" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -30255,7 +30251,7 @@
       <c r="AB948" s="3"/>
       <c r="AC948" s="3"/>
     </row>
-    <row r="949" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -30286,7 +30282,7 @@
       <c r="AB949" s="3"/>
       <c r="AC949" s="3"/>
     </row>
-    <row r="950" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -30317,7 +30313,7 @@
       <c r="AB950" s="3"/>
       <c r="AC950" s="3"/>
     </row>
-    <row r="951" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -30348,7 +30344,7 @@
       <c r="AB951" s="3"/>
       <c r="AC951" s="3"/>
     </row>
-    <row r="952" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -30379,7 +30375,7 @@
       <c r="AB952" s="3"/>
       <c r="AC952" s="3"/>
     </row>
-    <row r="953" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -30410,7 +30406,7 @@
       <c r="AB953" s="3"/>
       <c r="AC953" s="3"/>
     </row>
-    <row r="954" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -30441,7 +30437,7 @@
       <c r="AB954" s="3"/>
       <c r="AC954" s="3"/>
     </row>
-    <row r="955" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -30472,7 +30468,7 @@
       <c r="AB955" s="3"/>
       <c r="AC955" s="3"/>
     </row>
-    <row r="956" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -30503,7 +30499,7 @@
       <c r="AB956" s="3"/>
       <c r="AC956" s="3"/>
     </row>
-    <row r="957" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -30534,7 +30530,7 @@
       <c r="AB957" s="3"/>
       <c r="AC957" s="3"/>
     </row>
-    <row r="958" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -30565,7 +30561,7 @@
       <c r="AB958" s="3"/>
       <c r="AC958" s="3"/>
     </row>
-    <row r="959" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -30596,7 +30592,7 @@
       <c r="AB959" s="3"/>
       <c r="AC959" s="3"/>
     </row>
-    <row r="960" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -30627,7 +30623,7 @@
       <c r="AB960" s="3"/>
       <c r="AC960" s="3"/>
     </row>
-    <row r="961" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -30658,7 +30654,7 @@
       <c r="AB961" s="3"/>
       <c r="AC961" s="3"/>
     </row>
-    <row r="962" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -30689,7 +30685,7 @@
       <c r="AB962" s="3"/>
       <c r="AC962" s="3"/>
     </row>
-    <row r="963" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -30720,7 +30716,7 @@
       <c r="AB963" s="3"/>
       <c r="AC963" s="3"/>
     </row>
-    <row r="964" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -30751,7 +30747,7 @@
       <c r="AB964" s="3"/>
       <c r="AC964" s="3"/>
     </row>
-    <row r="965" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -30782,7 +30778,7 @@
       <c r="AB965" s="3"/>
       <c r="AC965" s="3"/>
     </row>
-    <row r="966" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -30813,7 +30809,7 @@
       <c r="AB966" s="3"/>
       <c r="AC966" s="3"/>
     </row>
-    <row r="967" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -30844,7 +30840,7 @@
       <c r="AB967" s="3"/>
       <c r="AC967" s="3"/>
     </row>
-    <row r="968" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -30875,7 +30871,7 @@
       <c r="AB968" s="3"/>
       <c r="AC968" s="3"/>
     </row>
-    <row r="969" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -30906,7 +30902,7 @@
       <c r="AB969" s="3"/>
       <c r="AC969" s="3"/>
     </row>
-    <row r="970" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -30937,7 +30933,7 @@
       <c r="AB970" s="3"/>
       <c r="AC970" s="3"/>
     </row>
-    <row r="971" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -30968,7 +30964,7 @@
       <c r="AB971" s="3"/>
       <c r="AC971" s="3"/>
     </row>
-    <row r="972" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -30999,7 +30995,7 @@
       <c r="AB972" s="3"/>
       <c r="AC972" s="3"/>
     </row>
-    <row r="973" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -31030,7 +31026,7 @@
       <c r="AB973" s="3"/>
       <c r="AC973" s="3"/>
     </row>
-    <row r="974" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -31061,7 +31057,7 @@
       <c r="AB974" s="3"/>
       <c r="AC974" s="3"/>
     </row>
-    <row r="975" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -31092,7 +31088,7 @@
       <c r="AB975" s="3"/>
       <c r="AC975" s="3"/>
     </row>
-    <row r="976" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -31123,7 +31119,7 @@
       <c r="AB976" s="3"/>
       <c r="AC976" s="3"/>
     </row>
-    <row r="977" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -31154,7 +31150,7 @@
       <c r="AB977" s="3"/>
       <c r="AC977" s="3"/>
     </row>
-    <row r="978" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -31185,7 +31181,7 @@
       <c r="AB978" s="3"/>
       <c r="AC978" s="3"/>
     </row>
-    <row r="979" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -31216,7 +31212,7 @@
       <c r="AB979" s="3"/>
       <c r="AC979" s="3"/>
     </row>
-    <row r="980" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -31247,7 +31243,7 @@
       <c r="AB980" s="3"/>
       <c r="AC980" s="3"/>
     </row>
-    <row r="981" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -31278,7 +31274,7 @@
       <c r="AB981" s="3"/>
       <c r="AC981" s="3"/>
     </row>
-    <row r="982" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -31309,7 +31305,7 @@
       <c r="AB982" s="3"/>
       <c r="AC982" s="3"/>
     </row>
-    <row r="983" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -31340,7 +31336,7 @@
       <c r="AB983" s="3"/>
       <c r="AC983" s="3"/>
     </row>
-    <row r="984" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -31371,7 +31367,7 @@
       <c r="AB984" s="3"/>
       <c r="AC984" s="3"/>
     </row>
-    <row r="985" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -31402,7 +31398,7 @@
       <c r="AB985" s="3"/>
       <c r="AC985" s="3"/>
     </row>
-    <row r="986" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -31433,7 +31429,7 @@
       <c r="AB986" s="3"/>
       <c r="AC986" s="3"/>
     </row>
-    <row r="987" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -31464,7 +31460,7 @@
       <c r="AB987" s="3"/>
       <c r="AC987" s="3"/>
     </row>
-    <row r="988" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -31495,7 +31491,7 @@
       <c r="AB988" s="3"/>
       <c r="AC988" s="3"/>
     </row>
-    <row r="989" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -31526,7 +31522,7 @@
       <c r="AB989" s="3"/>
       <c r="AC989" s="3"/>
     </row>
-    <row r="990" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -31557,7 +31553,7 @@
       <c r="AB990" s="3"/>
       <c r="AC990" s="3"/>
     </row>
-    <row r="991" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -31588,7 +31584,7 @@
       <c r="AB991" s="3"/>
       <c r="AC991" s="3"/>
     </row>
-    <row r="992" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -31619,7 +31615,7 @@
       <c r="AB992" s="3"/>
       <c r="AC992" s="3"/>
     </row>
-    <row r="993" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -31650,7 +31646,7 @@
       <c r="AB993" s="3"/>
       <c r="AC993" s="3"/>
     </row>
-    <row r="994" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -31681,7 +31677,7 @@
       <c r="AB994" s="3"/>
       <c r="AC994" s="3"/>
     </row>
-    <row r="995" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -31712,7 +31708,7 @@
       <c r="AB995" s="3"/>
       <c r="AC995" s="3"/>
     </row>
-    <row r="996" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -31743,7 +31739,7 @@
       <c r="AB996" s="3"/>
       <c r="AC996" s="3"/>
     </row>
-    <row r="997" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -31774,7 +31770,7 @@
       <c r="AB997" s="3"/>
       <c r="AC997" s="3"/>
     </row>
-    <row r="998" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -31805,7 +31801,7 @@
       <c r="AB998" s="3"/>
       <c r="AC998" s="3"/>
     </row>
-    <row r="999" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -31836,7 +31832,7 @@
       <c r="AB999" s="3"/>
       <c r="AC999" s="3"/>
     </row>
-    <row r="1000" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>

--- a/exe/TSV/Excel/W11_江ノ原検車区表示盤_UIList.xlsx
+++ b/exe/TSV/Excel/W11_江ノ原検車区表示盤_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21866972-DDD9-4EEF-B778-A4D353511565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA6BE2-7909-42BF-929D-05A33549E2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4290" windowWidth="24345" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="5310" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="268">
   <si>
     <t>Type</t>
   </si>
@@ -459,42 +459,45 @@
     <t>Image</t>
   </si>
   <si>
-    <t>1RA_Y</t>
+    <t>1RA_G</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
+    <t>Image/Light/N.png,Image/Light/G.png</t>
+  </si>
+  <si>
+    <t>Y,Gは灯色</t>
+  </si>
+  <si>
+    <t>1RB_G</t>
+  </si>
+  <si>
+    <t>1RC_G</t>
+  </si>
+  <si>
+    <t>2R_G</t>
+  </si>
+  <si>
+    <t>3L_G</t>
+  </si>
+  <si>
+    <t>4L_G</t>
+  </si>
+  <si>
+    <t>5LD_G</t>
+  </si>
+  <si>
+    <t>5LE_G</t>
+  </si>
+  <si>
+    <t>11R_Y</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/Y.png</t>
   </si>
   <si>
-    <t>Y,Gは灯色</t>
-  </si>
-  <si>
-    <t>1RB_Y</t>
-  </si>
-  <si>
-    <t>1RC_Y</t>
-  </si>
-  <si>
-    <t>2R_Y</t>
-  </si>
-  <si>
-    <t>3L_Y</t>
-  </si>
-  <si>
-    <t>4L_Y</t>
-  </si>
-  <si>
-    <t>5LD_Y</t>
-  </si>
-  <si>
-    <t>5LE_Y</t>
-  </si>
-  <si>
-    <t>11R_Y</t>
-  </si>
-  <si>
     <t>12L_Y</t>
   </si>
   <si>
@@ -597,7 +600,7 @@
     <t>0,1,2</t>
   </si>
   <si>
-    <t>Image/Light/0N.png,Image/Light/0G.png,Image/Light/0R.png</t>
+    <t>Image/Light/0N.png,Image/Light/0Y.png,Image/Light/0R.png</t>
   </si>
   <si>
     <t>0度(以下ラインライト特記なき限り0度)</t>
@@ -621,18 +624,18 @@
     <t>TH67_32T_P32N_2</t>
   </si>
   <si>
-    <t>Image/Light/68N.png,Image/Light/68G.png,Image/Light/68R.png</t>
+    <t>TH67_32T_P32R_1</t>
+  </si>
+  <si>
+    <t>TH67_32T_P32R_2</t>
+  </si>
+  <si>
+    <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
   </si>
   <si>
     <t>68度</t>
   </si>
   <si>
-    <t>TH67_32T_P32R_1</t>
-  </si>
-  <si>
-    <t>TH67_32T_P32R_2</t>
-  </si>
-  <si>
     <t>TH67_1RAT_1</t>
   </si>
   <si>
@@ -657,7 +660,7 @@
     <t>TH67_33イT_P33イR_2</t>
   </si>
   <si>
-    <t>Image/Light/112N.png,Image/Light/112G.png,Image/Light/112R.png</t>
+    <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
   </si>
   <si>
     <t>112度</t>
@@ -765,7 +768,7 @@
     <t>51イT_P51イ_R_2</t>
   </si>
   <si>
-    <t>Image/Light/135N.png,Image/Light/135G.png,Image/Light/135R.png</t>
+    <t>Image/Light/135N.png,Image/Light/135Y.png,Image/Light/135R.png</t>
   </si>
   <si>
     <t>135度</t>
@@ -801,7 +804,7 @@
     <t>52T_P52イ_N_P53ロ_R_1</t>
   </si>
   <si>
-    <t>Image/Light/45N.png,Image/Light/45G.png,Image/Light/45R.png</t>
+    <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
   </si>
   <si>
     <t>45度</t>
@@ -967,6 +970,18 @@
   </si>
   <si>
     <t>TH65_42ロT_P42ロ_R_2</t>
+  </si>
+  <si>
+    <t>TH65_11LT_1</t>
+  </si>
+  <si>
+    <t>TH65_11LT_2</t>
+  </si>
+  <si>
+    <t>TH65_12LT_1</t>
+  </si>
+  <si>
+    <t>TH65_12LT_2</t>
   </si>
   <si>
     <t>TH65_44T_1</t>
@@ -1491,7 +1506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1654,7 +1669,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="7" t="s">
@@ -1701,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="R4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="7" t="s">
@@ -1746,7 +1761,7 @@
         <v>26</v>
       </c>
       <c r="R5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="7" t="s">
@@ -1791,7 +1806,7 @@
         <v>26</v>
       </c>
       <c r="R6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="7" t="s">
@@ -1836,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="R7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="7" t="s">
@@ -1881,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="R8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="7" t="s">
@@ -1926,7 +1941,7 @@
         <v>26</v>
       </c>
       <c r="R9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="7" t="s">
@@ -1971,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="R10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="7" t="s">
@@ -2016,11 +2031,11 @@
         <v>26</v>
       </c>
       <c r="R11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -2037,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2061,11 +2076,11 @@
         <v>26</v>
       </c>
       <c r="R12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2082,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2106,11 +2121,11 @@
         <v>26</v>
       </c>
       <c r="R13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -2127,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2151,11 +2166,11 @@
         <v>26</v>
       </c>
       <c r="R14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2172,7 +2187,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2196,11 +2211,11 @@
         <v>26</v>
       </c>
       <c r="R15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2217,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2241,11 +2256,11 @@
         <v>26</v>
       </c>
       <c r="R16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2262,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2286,11 +2301,11 @@
         <v>26</v>
       </c>
       <c r="R17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2307,7 +2322,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2331,11 +2346,11 @@
         <v>26</v>
       </c>
       <c r="R18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2350,7 +2365,7 @@
     <row r="19" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2383,7 +2398,7 @@
     <row r="20" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2416,7 +2431,7 @@
     <row r="21" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2449,7 +2464,7 @@
     <row r="22" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2482,7 +2497,7 @@
     <row r="23" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2515,7 +2530,7 @@
     <row r="24" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2548,7 +2563,7 @@
     <row r="25" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2581,7 +2596,7 @@
     <row r="26" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2614,7 +2629,7 @@
     <row r="27" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2647,7 +2662,7 @@
     <row r="28" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2680,7 +2695,7 @@
     <row r="29" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2713,7 +2728,7 @@
     <row r="30" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2746,7 +2761,7 @@
     <row r="31" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2779,7 +2794,7 @@
     <row r="32" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2812,7 +2827,7 @@
     <row r="33" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2845,7 +2860,7 @@
     <row r="34" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2878,7 +2893,7 @@
     <row r="35" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2911,7 +2926,7 @@
     <row r="36" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2944,7 +2959,7 @@
     <row r="37" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2977,7 +2992,7 @@
     <row r="38" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3010,7 +3025,7 @@
     <row r="39" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3043,7 +3058,7 @@
     <row r="40" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3076,7 +3091,7 @@
     <row r="41" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3109,7 +3124,7 @@
     <row r="42" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3142,7 +3157,7 @@
     <row r="43" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3177,12 +3192,12 @@
         <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="4">
         <v>747</v>
@@ -3198,17 +3213,17 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3224,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3245,14 +3260,14 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -3269,7 +3284,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3290,14 +3305,14 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="6"/>
       <c r="T46" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -3314,7 +3329,7 @@
         <v>24</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3335,14 +3350,14 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -3359,7 +3374,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3380,14 +3395,14 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -3404,7 +3419,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3425,14 +3440,14 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -3449,7 +3464,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3470,18 +3485,16 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="U50" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -3496,7 +3509,7 @@
         <v>24</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3517,14 +3530,14 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -3541,7 +3554,7 @@
         <v>24</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3562,16 +3575,18 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R52" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U52" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -3586,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3607,14 +3622,14 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
@@ -3631,7 +3646,7 @@
         <v>24</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -3652,14 +3667,14 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="6"/>
       <c r="T54" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -3676,12 +3691,12 @@
         <v>24</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F55" s="4">
         <v>747</v>
@@ -3697,14 +3712,14 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -3721,7 +3736,7 @@
         <v>24</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3742,14 +3757,14 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -3766,7 +3781,7 @@
         <v>24</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3787,14 +3802,14 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
@@ -3811,7 +3826,7 @@
         <v>24</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3832,14 +3847,14 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -3856,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3877,14 +3892,14 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -3901,7 +3916,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3922,17 +3937,17 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U60" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -3948,7 +3963,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -3969,14 +3984,14 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
@@ -3993,7 +4008,7 @@
         <v>24</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -4014,14 +4029,14 @@
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -4038,7 +4053,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -4059,17 +4074,17 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -4085,7 +4100,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4106,14 +4121,14 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="6"/>
       <c r="T64" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -4130,7 +4145,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -4151,14 +4166,14 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="6"/>
       <c r="T65" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -4175,7 +4190,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -4196,14 +4211,14 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -4220,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -4241,14 +4256,14 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R67" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
@@ -4265,7 +4280,7 @@
         <v>24</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -4286,17 +4301,17 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U68" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -4312,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -4333,14 +4348,14 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R69" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
@@ -4357,7 +4372,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -4378,14 +4393,14 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" s="6"/>
       <c r="T70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -4402,7 +4417,7 @@
         <v>24</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -4423,14 +4438,14 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
@@ -4447,7 +4462,7 @@
         <v>24</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -4468,14 +4483,14 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" s="6"/>
       <c r="T72" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -4492,7 +4507,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -4513,17 +4528,17 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" s="6"/>
       <c r="T73" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U73" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -4539,7 +4554,7 @@
         <v>24</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -4560,14 +4575,14 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -4584,7 +4599,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -4605,14 +4620,14 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" s="6"/>
       <c r="T75" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
@@ -4629,7 +4644,7 @@
         <v>24</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -4650,17 +4665,17 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -4676,7 +4691,7 @@
         <v>24</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -4697,14 +4712,14 @@
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
@@ -4721,7 +4736,7 @@
         <v>24</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -4742,14 +4757,14 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78" s="6"/>
       <c r="T78" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -4766,7 +4781,7 @@
         <v>24</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -4787,14 +4802,14 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" s="6"/>
       <c r="T79" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
@@ -4811,7 +4826,7 @@
         <v>24</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -4832,14 +4847,14 @@
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
@@ -4856,7 +4871,7 @@
         <v>24</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -4877,14 +4892,14 @@
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R81" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
@@ -4901,7 +4916,7 @@
         <v>24</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -4922,14 +4937,14 @@
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R82" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -4946,7 +4961,7 @@
         <v>24</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -4967,14 +4982,14 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R83" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
@@ -4991,7 +5006,7 @@
         <v>24</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -5012,14 +5027,14 @@
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R84" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -5036,7 +5051,7 @@
         <v>24</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -5057,14 +5072,14 @@
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
@@ -5081,7 +5096,7 @@
         <v>24</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -5102,14 +5117,14 @@
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -5126,7 +5141,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -5147,14 +5162,14 @@
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
@@ -5171,7 +5186,7 @@
         <v>24</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -5192,14 +5207,14 @@
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -5216,7 +5231,7 @@
         <v>24</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -5237,14 +5252,14 @@
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R89" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
@@ -5261,7 +5276,7 @@
         <v>24</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -5282,14 +5297,14 @@
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -5306,7 +5321,7 @@
         <v>24</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -5327,14 +5342,14 @@
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
@@ -5351,7 +5366,7 @@
         <v>24</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -5372,14 +5387,14 @@
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -5396,7 +5411,7 @@
         <v>24</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5417,14 +5432,14 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
@@ -5441,7 +5456,7 @@
         <v>24</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5462,17 +5477,17 @@
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U94" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -5488,7 +5503,7 @@
         <v>24</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5509,14 +5524,14 @@
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
@@ -5533,7 +5548,7 @@
         <v>24</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -5554,14 +5569,14 @@
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -5578,7 +5593,7 @@
         <v>24</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -5599,17 +5614,17 @@
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U97" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -5625,7 +5640,7 @@
         <v>24</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -5646,14 +5661,14 @@
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R98" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98" s="6"/>
       <c r="T98" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -5670,7 +5685,7 @@
         <v>24</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5691,14 +5706,14 @@
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
@@ -5715,7 +5730,7 @@
         <v>24</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -5736,14 +5751,14 @@
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" s="6"/>
       <c r="T100" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -5760,7 +5775,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -5781,14 +5796,14 @@
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R101" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
@@ -5805,7 +5820,7 @@
         <v>24</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -5826,14 +5841,14 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R102" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -5850,7 +5865,7 @@
         <v>24</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -5871,17 +5886,17 @@
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R103" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U103" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -5897,7 +5912,7 @@
         <v>24</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -5918,17 +5933,17 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U104" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
@@ -5944,7 +5959,7 @@
         <v>24</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -5965,14 +5980,14 @@
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R105" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
@@ -5989,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6010,14 +6025,14 @@
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
       <c r="Q106" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R106" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S106" s="6"/>
       <c r="T106" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
@@ -6034,7 +6049,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6055,14 +6070,14 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R107" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
@@ -6079,7 +6094,7 @@
         <v>24</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -6100,14 +6115,14 @@
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R108" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -6124,7 +6139,7 @@
         <v>24</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -6145,14 +6160,14 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
@@ -6169,7 +6184,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -6190,17 +6205,17 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U110" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
@@ -6216,7 +6231,7 @@
         <v>24</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -6237,17 +6252,17 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" s="6"/>
       <c r="T111" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U111" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -6263,7 +6278,7 @@
         <v>24</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -6284,14 +6299,14 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R112" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -6308,7 +6323,7 @@
         <v>24</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -6329,14 +6344,14 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R113" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" s="6"/>
       <c r="T113" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
@@ -6353,7 +6368,7 @@
         <v>24</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -6374,14 +6389,14 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R114" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -6398,7 +6413,7 @@
         <v>24</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -6419,14 +6434,14 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
@@ -6443,7 +6458,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -6464,14 +6479,14 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R116" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
@@ -6488,7 +6503,7 @@
         <v>24</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -6509,17 +6524,17 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R117" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U117" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
@@ -6535,7 +6550,7 @@
         <v>24</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -6556,17 +6571,17 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R118" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U118" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
@@ -6582,7 +6597,7 @@
         <v>24</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -6603,14 +6618,14 @@
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
       <c r="Q119" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
@@ -6627,7 +6642,7 @@
         <v>24</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -6648,14 +6663,14 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
@@ -6672,7 +6687,7 @@
         <v>24</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -6693,14 +6708,14 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R121" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S121" s="6"/>
       <c r="T121" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
@@ -6717,7 +6732,7 @@
         <v>24</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -6738,14 +6753,14 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R122" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
@@ -6762,7 +6777,7 @@
         <v>24</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -6783,14 +6798,14 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R123" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
@@ -6807,7 +6822,7 @@
         <v>24</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -6828,17 +6843,17 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R124" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
@@ -6854,7 +6869,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -6875,17 +6890,17 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R125" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U125" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
@@ -6901,7 +6916,7 @@
         <v>24</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -6922,14 +6937,14 @@
       <c r="O126" s="4"/>
       <c r="P126" s="4"/>
       <c r="Q126" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R126" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S126" s="6"/>
       <c r="T126" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
@@ -6946,7 +6961,7 @@
         <v>24</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -6967,14 +6982,14 @@
       <c r="O127" s="4"/>
       <c r="P127" s="4"/>
       <c r="Q127" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
@@ -6991,7 +7006,7 @@
         <v>24</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -7012,14 +7027,14 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R128" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
@@ -7036,7 +7051,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -7057,14 +7072,14 @@
       <c r="O129" s="4"/>
       <c r="P129" s="4"/>
       <c r="Q129" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
@@ -7081,7 +7096,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -7102,14 +7117,14 @@
       <c r="O130" s="4"/>
       <c r="P130" s="4"/>
       <c r="Q130" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" s="6"/>
       <c r="T130" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
@@ -7126,7 +7141,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -7147,17 +7162,17 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R131" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" s="6"/>
       <c r="T131" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U131" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
@@ -7173,7 +7188,7 @@
         <v>24</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -7194,17 +7209,17 @@
       <c r="O132" s="4"/>
       <c r="P132" s="4"/>
       <c r="Q132" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R132" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U132" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
@@ -7220,7 +7235,7 @@
         <v>24</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -7241,14 +7256,14 @@
       <c r="O133" s="4"/>
       <c r="P133" s="4"/>
       <c r="Q133" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R133" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133" s="6"/>
       <c r="T133" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
@@ -7265,7 +7280,7 @@
         <v>24</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -7286,14 +7301,14 @@
       <c r="O134" s="4"/>
       <c r="P134" s="4"/>
       <c r="Q134" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R134" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134" s="6"/>
       <c r="T134" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -7310,7 +7325,7 @@
         <v>24</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -7331,14 +7346,14 @@
       <c r="O135" s="4"/>
       <c r="P135" s="4"/>
       <c r="Q135" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R135" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S135" s="6"/>
       <c r="T135" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
@@ -7355,7 +7370,7 @@
         <v>24</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -7376,14 +7391,14 @@
       <c r="O136" s="4"/>
       <c r="P136" s="4"/>
       <c r="Q136" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R136" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136" s="6"/>
       <c r="T136" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
@@ -7400,7 +7415,7 @@
         <v>24</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -7421,14 +7436,14 @@
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
       <c r="Q137" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R137" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
@@ -7445,7 +7460,7 @@
         <v>24</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -7466,17 +7481,17 @@
       <c r="O138" s="4"/>
       <c r="P138" s="4"/>
       <c r="Q138" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R138" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U138" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
@@ -7492,7 +7507,7 @@
         <v>24</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -7513,17 +7528,17 @@
       <c r="O139" s="4"/>
       <c r="P139" s="4"/>
       <c r="Q139" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R139" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U139" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -7539,7 +7554,7 @@
         <v>24</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -7560,14 +7575,14 @@
       <c r="O140" s="4"/>
       <c r="P140" s="4"/>
       <c r="Q140" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R140" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
@@ -7584,7 +7599,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -7605,14 +7620,14 @@
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
       <c r="Q141" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R141" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141" s="6"/>
       <c r="T141" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
@@ -7629,7 +7644,7 @@
         <v>24</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -7650,14 +7665,14 @@
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
       <c r="Q142" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R142" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
@@ -7674,7 +7689,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -7695,14 +7710,14 @@
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
       <c r="Q143" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R143" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S143" s="6"/>
       <c r="T143" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
@@ -7719,7 +7734,7 @@
         <v>24</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -7740,14 +7755,14 @@
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R144" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S144" s="6"/>
       <c r="T144" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
@@ -7764,7 +7779,7 @@
         <v>24</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -7785,14 +7800,14 @@
       <c r="O145" s="4"/>
       <c r="P145" s="4"/>
       <c r="Q145" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R145" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
@@ -7809,7 +7824,7 @@
         <v>24</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -7830,14 +7845,14 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R146" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
@@ -7854,7 +7869,7 @@
         <v>24</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -7875,14 +7890,14 @@
       <c r="O147" s="4"/>
       <c r="P147" s="4"/>
       <c r="Q147" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R147" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
@@ -7899,7 +7914,7 @@
         <v>24</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -7920,14 +7935,14 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R148" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S148" s="6"/>
       <c r="T148" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
@@ -7944,7 +7959,7 @@
         <v>24</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -7965,14 +7980,14 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R149" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S149" s="6"/>
       <c r="T149" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
@@ -7989,7 +8004,7 @@
         <v>24</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -8010,14 +8025,14 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R150" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150" s="6"/>
       <c r="T150" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
@@ -8034,7 +8049,7 @@
         <v>24</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -8055,14 +8070,14 @@
       <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R151" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S151" s="6"/>
       <c r="T151" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
@@ -8079,7 +8094,7 @@
         <v>24</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -8100,14 +8115,14 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
       <c r="Q152" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R152" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S152" s="6"/>
       <c r="T152" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -8124,7 +8139,7 @@
         <v>24</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -8145,14 +8160,14 @@
       <c r="O153" s="4"/>
       <c r="P153" s="4"/>
       <c r="Q153" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R153" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
@@ -8169,7 +8184,7 @@
         <v>24</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -8190,17 +8205,17 @@
       <c r="O154" s="4"/>
       <c r="P154" s="4"/>
       <c r="Q154" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R154" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U154" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -8216,7 +8231,7 @@
         <v>24</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -8237,14 +8252,14 @@
       <c r="O155" s="4"/>
       <c r="P155" s="4"/>
       <c r="Q155" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R155" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
@@ -8261,7 +8276,7 @@
         <v>24</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -8282,14 +8297,14 @@
       <c r="O156" s="4"/>
       <c r="P156" s="4"/>
       <c r="Q156" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R156" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S156" s="6"/>
       <c r="T156" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
@@ -8306,7 +8321,7 @@
         <v>24</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -8327,17 +8342,17 @@
       <c r="O157" s="4"/>
       <c r="P157" s="4"/>
       <c r="Q157" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R157" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S157" s="6"/>
       <c r="T157" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="U157" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
@@ -8353,7 +8368,7 @@
         <v>24</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -8374,14 +8389,14 @@
       <c r="O158" s="4"/>
       <c r="P158" s="4"/>
       <c r="Q158" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R158" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S158" s="6"/>
       <c r="T158" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
@@ -8398,15 +8413,15 @@
         <v>24</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4">
-        <v>1627</v>
+        <v>1484</v>
       </c>
       <c r="F159" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -8419,14 +8434,14 @@
       <c r="O159" s="4"/>
       <c r="P159" s="4"/>
       <c r="Q159" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R159" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S159" s="6"/>
       <c r="T159" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
@@ -8443,12 +8458,12 @@
         <v>24</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4">
-        <v>1627</v>
+        <v>1566</v>
       </c>
       <c r="F160" s="4">
         <v>807</v>
@@ -8464,14 +8479,14 @@
       <c r="O160" s="4"/>
       <c r="P160" s="4"/>
       <c r="Q160" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S160" s="6"/>
       <c r="T160" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
@@ -8488,15 +8503,15 @@
         <v>24</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4">
-        <v>1652</v>
+        <v>1484</v>
       </c>
       <c r="F161" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -8509,14 +8524,14 @@
       <c r="O161" s="4"/>
       <c r="P161" s="4"/>
       <c r="Q161" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R161" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S161" s="6"/>
       <c r="T161" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
@@ -8533,15 +8548,15 @@
         <v>24</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4">
-        <v>1682</v>
+        <v>1566</v>
       </c>
       <c r="F162" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -8554,14 +8569,14 @@
       <c r="O162" s="4"/>
       <c r="P162" s="4"/>
       <c r="Q162" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R162" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S162" s="6"/>
       <c r="T162" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
@@ -8578,15 +8593,15 @@
         <v>24</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4">
-        <v>1652</v>
+        <v>1627</v>
       </c>
       <c r="F163" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -8599,14 +8614,14 @@
       <c r="O163" s="4"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R163" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S163" s="6"/>
       <c r="T163" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
@@ -8623,15 +8638,15 @@
         <v>24</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4">
-        <v>1664</v>
+        <v>1627</v>
       </c>
       <c r="F164" s="4">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -8644,18 +8659,16 @@
       <c r="O164" s="4"/>
       <c r="P164" s="4"/>
       <c r="Q164" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R164" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S164" s="6"/>
       <c r="T164" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="U164" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
@@ -8670,15 +8683,15 @@
         <v>24</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="F165" s="4">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -8691,18 +8704,16 @@
       <c r="O165" s="4"/>
       <c r="P165" s="4"/>
       <c r="Q165" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S165" s="6"/>
       <c r="T165" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="U165" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
@@ -8717,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -8738,16 +8749,16 @@
       <c r="O166" s="4"/>
       <c r="P166" s="4"/>
       <c r="Q166" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R166" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S166" s="6"/>
       <c r="T166" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U166" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
@@ -8762,7 +8773,7 @@
         <v>24</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -8770,7 +8781,7 @@
         <v>1652</v>
       </c>
       <c r="F167" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -8783,16 +8794,16 @@
       <c r="O167" s="4"/>
       <c r="P167" s="4"/>
       <c r="Q167" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R167" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S167" s="6"/>
       <c r="T167" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U167" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
@@ -8807,15 +8818,15 @@
         <v>24</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="F168" s="4">
-        <v>867</v>
+        <v>822</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -8828,16 +8839,18 @@
       <c r="O168" s="4"/>
       <c r="P168" s="4"/>
       <c r="Q168" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R168" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S168" s="6"/>
       <c r="T168" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U168" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="U168" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
@@ -8852,15 +8865,15 @@
         <v>24</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4">
-        <v>1652</v>
+        <v>1674</v>
       </c>
       <c r="F169" s="4">
-        <v>867</v>
+        <v>822</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -8873,16 +8886,18 @@
       <c r="O169" s="4"/>
       <c r="P169" s="4"/>
       <c r="Q169" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R169" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S169" s="6"/>
       <c r="T169" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U169" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="U169" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
@@ -8897,15 +8912,15 @@
         <v>24</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4">
-        <v>1664</v>
+        <v>1682</v>
       </c>
       <c r="F170" s="4">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -8918,18 +8933,16 @@
       <c r="O170" s="4"/>
       <c r="P170" s="4"/>
       <c r="Q170" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R170" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S170" s="6"/>
       <c r="T170" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="U170" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U170" s="9"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
@@ -8944,15 +8957,15 @@
         <v>24</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="F171" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -8965,18 +8978,16 @@
       <c r="O171" s="4"/>
       <c r="P171" s="4"/>
       <c r="Q171" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R171" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S171" s="6"/>
       <c r="T171" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="U171" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U171" s="9"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
@@ -8991,7 +9002,7 @@
         <v>24</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -9012,16 +9023,16 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R172" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S172" s="6"/>
       <c r="T172" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U172" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="U172" s="9"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
@@ -9036,15 +9047,15 @@
         <v>24</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4">
-        <v>1702</v>
+        <v>1652</v>
       </c>
       <c r="F173" s="4">
-        <v>747</v>
+        <v>867</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -9057,16 +9068,16 @@
       <c r="O173" s="4"/>
       <c r="P173" s="4"/>
       <c r="Q173" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R173" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S173" s="6"/>
       <c r="T173" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U173" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="U173" s="9"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
@@ -9081,15 +9092,15 @@
         <v>24</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4">
-        <v>1732</v>
+        <v>1664</v>
       </c>
       <c r="F174" s="4">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -9102,16 +9113,18 @@
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R174" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S174" s="6"/>
       <c r="T174" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U174" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="U174" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
@@ -9126,15 +9139,15 @@
         <v>24</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4">
-        <v>1714</v>
+        <v>1674</v>
       </c>
       <c r="F175" s="4">
-        <v>787</v>
+        <v>847</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -9147,17 +9160,17 @@
       <c r="O175" s="4"/>
       <c r="P175" s="4"/>
       <c r="Q175" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R175" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S175" s="6"/>
       <c r="T175" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="U175" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
@@ -9173,15 +9186,15 @@
         <v>24</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4">
-        <v>1732</v>
+        <v>1682</v>
       </c>
       <c r="F176" s="4">
-        <v>747</v>
+        <v>867</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -9194,14 +9207,14 @@
       <c r="O176" s="4"/>
       <c r="P176" s="4"/>
       <c r="Q176" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R176" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S176" s="6"/>
       <c r="T176" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
@@ -9218,12 +9231,12 @@
         <v>24</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4">
-        <v>1757</v>
+        <v>1702</v>
       </c>
       <c r="F177" s="4">
         <v>747</v>
@@ -9239,14 +9252,14 @@
       <c r="O177" s="4"/>
       <c r="P177" s="4"/>
       <c r="Q177" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R177" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S177" s="6"/>
       <c r="T177" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
@@ -9263,12 +9276,12 @@
         <v>24</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4">
-        <v>1787</v>
+        <v>1732</v>
       </c>
       <c r="F178" s="4">
         <v>747</v>
@@ -9284,14 +9297,14 @@
       <c r="O178" s="4"/>
       <c r="P178" s="4"/>
       <c r="Q178" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R178" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S178" s="6"/>
       <c r="T178" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
@@ -9308,15 +9321,15 @@
         <v>24</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4">
-        <v>1817</v>
+        <v>1714</v>
       </c>
       <c r="F179" s="4">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
@@ -9329,16 +9342,18 @@
       <c r="O179" s="4"/>
       <c r="P179" s="4"/>
       <c r="Q179" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R179" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S179" s="6"/>
       <c r="T179" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U179" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="U179" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
@@ -9353,12 +9368,12 @@
         <v>24</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4">
-        <v>1857</v>
+        <v>1732</v>
       </c>
       <c r="F180" s="4">
         <v>747</v>
@@ -9374,18 +9389,16 @@
       <c r="O180" s="4"/>
       <c r="P180" s="4"/>
       <c r="Q180" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R180" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S180" s="6"/>
       <c r="T180" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U180" s="3" t="s">
-        <v>217</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
@@ -9397,18 +9410,18 @@
     </row>
     <row r="181" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4">
-        <v>112</v>
+        <v>1757</v>
       </c>
       <c r="F181" s="4">
-        <v>491</v>
+        <v>747</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
@@ -9420,11 +9433,15 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
       <c r="P181" s="4"/>
-      <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
-      <c r="S181" s="4"/>
-      <c r="T181" s="3" t="s">
-        <v>220</v>
+      <c r="Q181" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R181" s="5">
+        <v>0</v>
+      </c>
+      <c r="S181" s="6"/>
+      <c r="T181" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
@@ -9438,18 +9455,18 @@
     </row>
     <row r="182" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4">
-        <v>112</v>
+        <v>1787</v>
       </c>
       <c r="F182" s="4">
-        <v>537</v>
+        <v>747</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
@@ -9461,11 +9478,15 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
       <c r="P182" s="4"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
-      <c r="S182" s="4"/>
-      <c r="T182" s="3" t="s">
-        <v>220</v>
+      <c r="Q182" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R182" s="5">
+        <v>0</v>
+      </c>
+      <c r="S182" s="6"/>
+      <c r="T182" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
@@ -9479,18 +9500,18 @@
     </row>
     <row r="183" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4">
-        <v>112</v>
+        <v>1817</v>
       </c>
       <c r="F183" s="4">
-        <v>583</v>
+        <v>747</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -9502,11 +9523,15 @@
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
       <c r="P183" s="4"/>
-      <c r="Q183" s="4"/>
-      <c r="R183" s="4"/>
-      <c r="S183" s="4"/>
-      <c r="T183" s="3" t="s">
-        <v>220</v>
+      <c r="Q183" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0</v>
+      </c>
+      <c r="S183" s="6"/>
+      <c r="T183" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
@@ -9520,18 +9545,18 @@
     </row>
     <row r="184" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4">
-        <v>112</v>
+        <v>1857</v>
       </c>
       <c r="F184" s="4">
-        <v>629</v>
+        <v>747</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
@@ -9543,13 +9568,19 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
       <c r="P184" s="4"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
-      <c r="S184" s="4"/>
-      <c r="T184" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="U184" s="3"/>
+      <c r="Q184" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R184" s="5">
+        <v>0</v>
+      </c>
+      <c r="S184" s="6"/>
+      <c r="T184" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U184" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
@@ -9561,7 +9592,7 @@
     </row>
     <row r="185" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>224</v>
@@ -9569,10 +9600,10 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="F185" s="4">
-        <v>537</v>
+        <v>491</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
@@ -9588,7 +9619,7 @@
       <c r="R185" s="4"/>
       <c r="S185" s="4"/>
       <c r="T185" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
@@ -9602,15 +9633,15 @@
     </row>
     <row r="186" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="F186" s="4">
         <v>537</v>
@@ -9629,7 +9660,7 @@
       <c r="R186" s="4"/>
       <c r="S186" s="4"/>
       <c r="T186" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
@@ -9643,18 +9674,18 @@
     </row>
     <row r="187" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4">
-        <v>826</v>
+        <v>112</v>
       </c>
       <c r="F187" s="4">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
@@ -9670,7 +9701,7 @@
       <c r="R187" s="4"/>
       <c r="S187" s="4"/>
       <c r="T187" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
@@ -9684,18 +9715,18 @@
     </row>
     <row r="188" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4">
-        <v>1250</v>
+        <v>112</v>
       </c>
       <c r="F188" s="4">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -9711,7 +9742,7 @@
       <c r="R188" s="4"/>
       <c r="S188" s="4"/>
       <c r="T188" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
@@ -9725,18 +9756,18 @@
     </row>
     <row r="189" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4">
-        <v>1250</v>
+        <v>412</v>
       </c>
       <c r="F189" s="4">
-        <v>676</v>
+        <v>537</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
@@ -9752,7 +9783,7 @@
       <c r="R189" s="4"/>
       <c r="S189" s="4"/>
       <c r="T189" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
@@ -9766,18 +9797,18 @@
     </row>
     <row r="190" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4">
-        <v>1227</v>
+        <v>262</v>
       </c>
       <c r="F190" s="4">
-        <v>903</v>
+        <v>537</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
@@ -9793,7 +9824,7 @@
       <c r="R190" s="4"/>
       <c r="S190" s="4"/>
       <c r="T190" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
@@ -9807,18 +9838,18 @@
     </row>
     <row r="191" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4">
-        <v>1465</v>
+        <v>826</v>
       </c>
       <c r="F191" s="4">
-        <v>903</v>
+        <v>676</v>
       </c>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
@@ -9834,7 +9865,7 @@
       <c r="R191" s="4"/>
       <c r="S191" s="4"/>
       <c r="T191" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
@@ -9848,18 +9879,18 @@
     </row>
     <row r="192" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4">
-        <v>1465</v>
+        <v>1250</v>
       </c>
       <c r="F192" s="4">
-        <v>949</v>
+        <v>616</v>
       </c>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
@@ -9875,7 +9906,7 @@
       <c r="R192" s="4"/>
       <c r="S192" s="4"/>
       <c r="T192" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
@@ -9889,18 +9920,18 @@
     </row>
     <row r="193" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4">
-        <v>1615</v>
+        <v>1250</v>
       </c>
       <c r="F193" s="4">
-        <v>903</v>
+        <v>676</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
@@ -9916,11 +9947,9 @@
       <c r="R193" s="4"/>
       <c r="S193" s="4"/>
       <c r="T193" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="U193" s="3" t="s">
-        <v>233</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
@@ -9932,7 +9961,7 @@
     </row>
     <row r="194" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>234</v>
@@ -9940,7 +9969,7 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4">
-        <v>1765</v>
+        <v>1227</v>
       </c>
       <c r="F194" s="4">
         <v>903</v>
@@ -9959,7 +9988,7 @@
       <c r="R194" s="4"/>
       <c r="S194" s="4"/>
       <c r="T194" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
@@ -9973,7 +10002,7 @@
     </row>
     <row r="195" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>235</v>
@@ -9981,10 +10010,10 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4">
-        <v>773</v>
+        <v>1465</v>
       </c>
       <c r="F195" s="4">
-        <v>45</v>
+        <v>903</v>
       </c>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
@@ -9996,19 +10025,13 @@
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
       <c r="P195" s="4"/>
-      <c r="Q195" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R195" s="5">
-        <v>1</v>
-      </c>
-      <c r="S195" s="6"/>
-      <c r="T195" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U195" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
@@ -10020,18 +10043,18 @@
     </row>
     <row r="196" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4">
-        <v>783</v>
+        <v>1465</v>
       </c>
       <c r="F196" s="4">
-        <v>45</v>
+        <v>949</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
@@ -10043,19 +10066,13 @@
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
       <c r="P196" s="4"/>
-      <c r="Q196" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R196" s="5">
-        <v>1</v>
-      </c>
-      <c r="S196" s="6"/>
-      <c r="T196" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U196" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
@@ -10067,18 +10084,18 @@
     </row>
     <row r="197" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4">
-        <v>773</v>
+        <v>1615</v>
       </c>
       <c r="F197" s="4">
-        <v>55</v>
+        <v>903</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
@@ -10090,18 +10107,14 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
       <c r="P197" s="4"/>
-      <c r="Q197" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R197" s="5">
-        <v>1</v>
-      </c>
-      <c r="S197" s="6"/>
-      <c r="T197" s="7" t="s">
-        <v>236</v>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="U197" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
@@ -10114,18 +10127,18 @@
     </row>
     <row r="198" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4">
-        <v>783</v>
+        <v>1765</v>
       </c>
       <c r="F198" s="4">
-        <v>55</v>
+        <v>903</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
@@ -10137,19 +10150,13 @@
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
       <c r="P198" s="4"/>
-      <c r="Q198" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R198" s="5">
-        <v>1</v>
-      </c>
-      <c r="S198" s="6"/>
-      <c r="T198" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U198" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
@@ -10164,12 +10171,12 @@
         <v>24</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4">
-        <v>821</v>
+        <v>773</v>
       </c>
       <c r="F199" s="4">
         <v>45</v>
@@ -10188,14 +10195,14 @@
         <v>26</v>
       </c>
       <c r="R199" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S199" s="6"/>
       <c r="T199" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U199" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
@@ -10211,12 +10218,12 @@
         <v>24</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4">
-        <v>831</v>
+        <v>783</v>
       </c>
       <c r="F200" s="4">
         <v>45</v>
@@ -10235,14 +10242,14 @@
         <v>26</v>
       </c>
       <c r="R200" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S200" s="6"/>
       <c r="T200" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U200" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
@@ -10258,12 +10265,12 @@
         <v>24</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4">
-        <v>821</v>
+        <v>773</v>
       </c>
       <c r="F201" s="4">
         <v>55</v>
@@ -10282,14 +10289,14 @@
         <v>26</v>
       </c>
       <c r="R201" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S201" s="6"/>
       <c r="T201" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U201" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
@@ -10305,12 +10312,12 @@
         <v>24</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4">
-        <v>831</v>
+        <v>783</v>
       </c>
       <c r="F202" s="4">
         <v>55</v>
@@ -10329,14 +10336,14 @@
         <v>26</v>
       </c>
       <c r="R202" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S202" s="6"/>
       <c r="T202" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="U202" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
@@ -10352,15 +10359,15 @@
         <v>24</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4">
-        <v>1079</v>
+        <v>821</v>
       </c>
       <c r="F203" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
@@ -10376,13 +10383,15 @@
         <v>26</v>
       </c>
       <c r="R203" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S203" s="6"/>
       <c r="T203" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U203" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="U203" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
@@ -10396,16 +10405,16 @@
       <c r="A204" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>253</v>
+      <c r="B204" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4">
-        <v>1089</v>
+        <v>831</v>
       </c>
       <c r="F204" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
@@ -10421,13 +10430,15 @@
         <v>26</v>
       </c>
       <c r="R204" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S204" s="6"/>
       <c r="T204" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U204" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="U204" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
@@ -10441,16 +10452,16 @@
       <c r="A205" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>254</v>
+      <c r="B205" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4">
-        <v>1117</v>
+        <v>821</v>
       </c>
       <c r="F205" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
@@ -10466,13 +10477,15 @@
         <v>26</v>
       </c>
       <c r="R205" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S205" s="6"/>
       <c r="T205" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U205" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="U205" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
@@ -10486,16 +10499,16 @@
       <c r="A206" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4">
-        <v>1127</v>
+        <v>831</v>
       </c>
       <c r="F206" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
@@ -10511,13 +10524,15 @@
         <v>26</v>
       </c>
       <c r="R206" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S206" s="6"/>
       <c r="T206" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="U206" s="3"/>
+        <v>241</v>
+      </c>
+      <c r="U206" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
@@ -10528,12 +10543,20 @@
       <c r="AC206" s="3"/>
     </row>
     <row r="207" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
+      <c r="A207" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="E207" s="4">
+        <v>1079</v>
+      </c>
+      <c r="F207" s="4">
+        <v>50</v>
+      </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
@@ -10544,10 +10567,16 @@
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
       <c r="P207" s="4"/>
-      <c r="Q207" s="4"/>
-      <c r="R207" s="4"/>
-      <c r="S207" s="4"/>
-      <c r="T207" s="3"/>
+      <c r="Q207" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R207" s="5">
+        <v>0</v>
+      </c>
+      <c r="S207" s="6"/>
+      <c r="T207" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
@@ -10559,12 +10588,20 @@
       <c r="AC207" s="3"/>
     </row>
     <row r="208" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
+      <c r="A208" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>258</v>
+      </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
+      <c r="E208" s="4">
+        <v>1089</v>
+      </c>
+      <c r="F208" s="4">
+        <v>50</v>
+      </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
@@ -10575,10 +10612,16 @@
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
       <c r="P208" s="4"/>
-      <c r="Q208" s="4"/>
-      <c r="R208" s="4"/>
-      <c r="S208" s="4"/>
-      <c r="T208" s="3"/>
+      <c r="Q208" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R208" s="5">
+        <v>0</v>
+      </c>
+      <c r="S208" s="6"/>
+      <c r="T208" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
@@ -10590,12 +10633,20 @@
       <c r="AC208" s="3"/>
     </row>
     <row r="209" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
+      <c r="A209" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
+      <c r="E209" s="4">
+        <v>1117</v>
+      </c>
+      <c r="F209" s="4">
+        <v>50</v>
+      </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
@@ -10606,10 +10657,16 @@
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
       <c r="P209" s="4"/>
-      <c r="Q209" s="4"/>
-      <c r="R209" s="4"/>
-      <c r="S209" s="4"/>
-      <c r="T209" s="3"/>
+      <c r="Q209" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R209" s="5">
+        <v>0</v>
+      </c>
+      <c r="S209" s="6"/>
+      <c r="T209" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
@@ -10621,12 +10678,20 @@
       <c r="AC209" s="3"/>
     </row>
     <row r="210" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
+      <c r="A210" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>260</v>
+      </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
+      <c r="E210" s="4">
+        <v>1127</v>
+      </c>
+      <c r="F210" s="4">
+        <v>50</v>
+      </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
@@ -10637,10 +10702,16 @@
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
       <c r="P210" s="4"/>
-      <c r="Q210" s="4"/>
-      <c r="R210" s="4"/>
-      <c r="S210" s="4"/>
-      <c r="T210" s="3"/>
+      <c r="Q210" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R210" s="5">
+        <v>0</v>
+      </c>
+      <c r="S210" s="6"/>
+      <c r="T210" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
@@ -10650,6 +10721,130 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
+    </row>
+    <row r="211" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="3"/>
+      <c r="U211" s="3"/>
+      <c r="V211" s="3"/>
+      <c r="W211" s="3"/>
+      <c r="X211" s="3"/>
+      <c r="Y211" s="3"/>
+      <c r="Z211" s="3"/>
+      <c r="AA211" s="3"/>
+      <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
+    </row>
+    <row r="212" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="3"/>
+      <c r="U212" s="3"/>
+      <c r="V212" s="3"/>
+      <c r="W212" s="3"/>
+      <c r="X212" s="3"/>
+      <c r="Y212" s="3"/>
+      <c r="Z212" s="3"/>
+      <c r="AA212" s="3"/>
+      <c r="AB212" s="3"/>
+      <c r="AC212" s="3"/>
+    </row>
+    <row r="213" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="3"/>
+      <c r="U213" s="3"/>
+      <c r="V213" s="3"/>
+      <c r="W213" s="3"/>
+      <c r="X213" s="3"/>
+      <c r="Y213" s="3"/>
+      <c r="Z213" s="3"/>
+      <c r="AA213" s="3"/>
+      <c r="AB213" s="3"/>
+      <c r="AC213" s="3"/>
+    </row>
+    <row r="214" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="3"/>
+      <c r="U214" s="3"/>
+      <c r="V214" s="3"/>
+      <c r="W214" s="3"/>
+      <c r="X214" s="3"/>
+      <c r="Y214" s="3"/>
+      <c r="Z214" s="3"/>
+      <c r="AA214" s="3"/>
+      <c r="AB214" s="3"/>
+      <c r="AC214" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -10662,7 +10857,7 @@
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A210</xm:sqref>
+          <xm:sqref>A2:A214</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10683,17 +10878,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -10708,27 +10903,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
